--- a/assets/datasets/3.4.xlsx
+++ b/assets/datasets/3.4.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21029"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lea/Documents/Università/Sintesi/Mappa odio/Exel/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nicola\Google Drive\Sintesi C3—HATE SPEECH\Phase 02\z-SITO\Dataset\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B80F76-2760-3E43-A51D-35AE4F5E9E83}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CC9C87BF-7357-4075-B1B5-3B9E4C4FB604}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="17540" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Referrals &amp; destinations" sheetId="2" r:id="rId1"/>
@@ -991,7 +991,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="23">
+  <fonts count="21">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -1001,62 +1001,67 @@
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <b/>
       <sz val="10"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF252525"/>
-      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF252525"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
@@ -1068,55 +1073,57 @@
       <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF252525"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
-      <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF1155CC"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
     <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF000000"/>
       <name val="Arial"/>
+      <family val="2"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1159,12 +1166,6 @@
         <bgColor rgb="FFF4CCCC"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFF2CC"/>
-        <bgColor rgb="FFFFF2CC"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -1185,7 +1186,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -1208,9 +1209,6 @@
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1220,65 +1218,55 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="10" fontId="8" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="10" fontId="9" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="16" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="15" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="15" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="49" fontId="19" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="49" fontId="17" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="21" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="17" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="16" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="10" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -1288,6 +1276,7 @@
     </xf>
     <xf numFmtId="10" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normale" xfId="0" builtinId="0"/>
@@ -1607,2540 +1596,2541 @@
   </sheetPr>
   <dimension ref="A1:U72"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="35" customWidth="1"/>
-    <col min="2" max="2" width="22.5" customWidth="1"/>
-    <col min="3" max="3" width="19.1640625" customWidth="1"/>
-    <col min="4" max="4" width="28.83203125" customWidth="1"/>
-    <col min="5" max="5" width="19.1640625" customWidth="1"/>
-    <col min="6" max="6" width="24.5" customWidth="1"/>
-    <col min="7" max="7" width="19.1640625" customWidth="1"/>
-    <col min="8" max="8" width="30.83203125" customWidth="1"/>
-    <col min="9" max="9" width="19.1640625" customWidth="1"/>
-    <col min="10" max="10" width="33.5" customWidth="1"/>
-    <col min="11" max="11" width="19.1640625" customWidth="1"/>
-    <col min="12" max="12" width="27.6640625" customWidth="1"/>
+    <col min="2" max="2" width="22.453125" customWidth="1"/>
+    <col min="3" max="3" width="19.1796875" customWidth="1"/>
+    <col min="4" max="4" width="28.81640625" customWidth="1"/>
+    <col min="5" max="5" width="19.1796875" customWidth="1"/>
+    <col min="6" max="6" width="24.453125" customWidth="1"/>
+    <col min="7" max="7" width="19.1796875" customWidth="1"/>
+    <col min="8" max="8" width="30.81640625" customWidth="1"/>
+    <col min="9" max="9" width="19.1796875" customWidth="1"/>
+    <col min="10" max="10" width="33.453125" customWidth="1"/>
+    <col min="11" max="11" width="19.1796875" customWidth="1"/>
+    <col min="12" max="12" width="27.6328125" customWidth="1"/>
     <col min="13" max="13" width="21" customWidth="1"/>
-    <col min="14" max="14" width="18.6640625" customWidth="1"/>
+    <col min="14" max="14" width="18.6328125" customWidth="1"/>
     <col min="15" max="15" width="21" customWidth="1"/>
-    <col min="16" max="16" width="22.1640625" customWidth="1"/>
+    <col min="16" max="16" width="22.1796875" customWidth="1"/>
     <col min="17" max="17" width="21" customWidth="1"/>
-    <col min="18" max="18" width="28.1640625" customWidth="1"/>
+    <col min="18" max="18" width="28.1796875" customWidth="1"/>
     <col min="19" max="19" width="21" customWidth="1"/>
-    <col min="20" max="20" width="26.5" customWidth="1"/>
-    <col min="21" max="21" width="22.83203125" customWidth="1"/>
+    <col min="20" max="20" width="26.453125" customWidth="1"/>
+    <col min="21" max="21" width="22.81640625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" ht="15.75" customHeight="1">
       <c r="A1" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="B1" s="13" t="s">
+      <c r="B1" s="12" t="s">
         <v>50</v>
       </c>
-      <c r="C1" s="15" t="s">
+      <c r="C1" s="14" t="s">
         <v>51</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D1" s="12" t="s">
         <v>53</v>
       </c>
-      <c r="E1" s="15" t="s">
+      <c r="E1" s="14" t="s">
         <v>54</v>
       </c>
-      <c r="F1" s="13" t="s">
+      <c r="F1" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="G1" s="17" t="s">
+      <c r="G1" s="16" t="s">
         <v>56</v>
       </c>
-      <c r="H1" s="13" t="s">
+      <c r="H1" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="I1" s="17" t="s">
+      <c r="I1" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="J1" s="13" t="s">
+      <c r="J1" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="K1" s="17" t="s">
+      <c r="K1" s="16" t="s">
         <v>60</v>
       </c>
-      <c r="L1" s="19" t="s">
+      <c r="L1" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="M1" s="21" t="s">
+      <c r="M1" s="18" t="s">
         <v>2</v>
       </c>
-      <c r="N1" s="22" t="s">
+      <c r="N1" s="19" t="s">
         <v>62</v>
       </c>
-      <c r="O1" s="21" t="s">
+      <c r="O1" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="P1" s="22" t="s">
+      <c r="P1" s="19" t="s">
         <v>64</v>
       </c>
-      <c r="Q1" s="21" t="s">
+      <c r="Q1" s="18" t="s">
         <v>65</v>
       </c>
-      <c r="R1" s="22" t="s">
+      <c r="R1" s="19" t="s">
         <v>66</v>
       </c>
-      <c r="S1" s="21" t="s">
+      <c r="S1" s="18" t="s">
         <v>67</v>
       </c>
-      <c r="T1" s="22" t="s">
+      <c r="T1" s="19" t="s">
         <v>68</v>
       </c>
-      <c r="U1" s="21" t="s">
+      <c r="U1" s="18" t="s">
         <v>69</v>
       </c>
     </row>
     <row r="2" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A2" s="25" t="s">
+      <c r="A2" s="22" t="s">
         <v>70</v>
       </c>
-      <c r="B2" s="26"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="26"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="26"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="26"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="26"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="26"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="28"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="25"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="25"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="25"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="25"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="25"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="25"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="25"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="25"/>
     </row>
     <row r="3" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A3" s="30" t="s">
+      <c r="A3" s="27" t="s">
         <v>81</v>
       </c>
-      <c r="B3" s="32" t="s">
+      <c r="B3" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="C3" s="37">
+      <c r="C3" s="33">
         <v>0.24260000000000001</v>
       </c>
-      <c r="D3" s="32" t="s">
+      <c r="D3" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="E3" s="37">
+      <c r="E3" s="33">
         <v>0.14910000000000001</v>
       </c>
-      <c r="F3" s="39" t="s">
+      <c r="F3" s="35" t="s">
         <v>118</v>
       </c>
-      <c r="G3" s="37">
+      <c r="G3" s="33">
         <v>0.1231</v>
       </c>
-      <c r="H3" s="41" t="s">
+      <c r="H3" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="I3" s="37">
+      <c r="I3" s="33">
         <v>0.1168</v>
       </c>
-      <c r="J3" s="42" t="s">
+      <c r="J3" s="38" t="s">
         <v>124</v>
       </c>
       <c r="K3" s="8" t="s">
         <v>125</v>
       </c>
-      <c r="L3" s="42" t="s">
+      <c r="L3" s="38" t="s">
         <v>126</v>
       </c>
       <c r="M3" s="8" t="s">
         <v>127</v>
       </c>
-      <c r="N3" s="41" t="s">
+      <c r="N3" s="37" t="s">
         <v>128</v>
       </c>
-      <c r="O3" s="37">
+      <c r="O3" s="33">
         <v>0.09</v>
       </c>
-      <c r="P3" s="42" t="s">
+      <c r="P3" s="38" t="s">
         <v>129</v>
       </c>
-      <c r="Q3" s="37">
+      <c r="Q3" s="33">
         <v>7.4099999999999999E-2</v>
       </c>
-      <c r="R3" s="41" t="s">
+      <c r="R3" s="37" t="s">
         <v>130</v>
       </c>
-      <c r="S3" s="37">
+      <c r="S3" s="33">
         <v>6.6699999999999995E-2</v>
       </c>
-      <c r="T3" s="41" t="s">
+      <c r="T3" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="U3" s="37">
+      <c r="U3" s="33">
         <v>6.6299999999999998E-2</v>
       </c>
     </row>
     <row r="4" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A4" s="25" t="s">
+      <c r="A4" s="22" t="s">
         <v>132</v>
       </c>
-      <c r="B4" s="26"/>
-      <c r="C4" s="28"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="28"/>
-      <c r="F4" s="26"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="26"/>
-      <c r="I4" s="28"/>
-      <c r="J4" s="26"/>
-      <c r="K4" s="28"/>
-      <c r="L4" s="26"/>
-      <c r="M4" s="28"/>
-      <c r="N4" s="26"/>
-      <c r="O4" s="28"/>
-      <c r="P4" s="26"/>
-      <c r="Q4" s="28"/>
-      <c r="R4" s="26"/>
-      <c r="S4" s="28"/>
-      <c r="T4" s="26"/>
-      <c r="U4" s="28"/>
+      <c r="B4" s="23"/>
+      <c r="C4" s="25"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="25"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="25"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="25"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="25"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="25"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="25"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="25"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="25"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="25"/>
     </row>
     <row r="5" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A5" s="25" t="s">
+      <c r="A5" s="22" t="s">
         <v>133</v>
       </c>
-      <c r="B5" s="26"/>
-      <c r="C5" s="28"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="26"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="26"/>
-      <c r="I5" s="28"/>
-      <c r="J5" s="26"/>
-      <c r="K5" s="28"/>
-      <c r="L5" s="26"/>
-      <c r="M5" s="28"/>
-      <c r="N5" s="26"/>
-      <c r="O5" s="28"/>
-      <c r="P5" s="26"/>
-      <c r="Q5" s="28"/>
-      <c r="R5" s="26"/>
-      <c r="S5" s="28"/>
-      <c r="T5" s="26"/>
-      <c r="U5" s="28"/>
+      <c r="B5" s="23"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="23"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="25"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="25"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="25"/>
+      <c r="L5" s="23"/>
+      <c r="M5" s="25"/>
+      <c r="N5" s="23"/>
+      <c r="O5" s="25"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="25"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="25"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="25"/>
     </row>
     <row r="6" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A6" s="30" t="s">
+      <c r="A6" s="27" t="s">
         <v>134</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="C6" s="45">
+      <c r="C6" s="40">
         <v>0.22620000000000001</v>
       </c>
-      <c r="D6" s="41" t="s">
+      <c r="D6" s="37" t="s">
         <v>137</v>
       </c>
-      <c r="E6" s="45">
+      <c r="E6" s="40">
         <v>0.1207</v>
       </c>
-      <c r="F6" s="41" t="s">
+      <c r="F6" s="37" t="s">
         <v>141</v>
       </c>
-      <c r="G6" s="45">
+      <c r="G6" s="40">
         <v>8.9800000000000005E-2</v>
       </c>
-      <c r="H6" s="41" t="s">
+      <c r="H6" s="37" t="s">
         <v>143</v>
       </c>
-      <c r="I6" s="45">
+      <c r="I6" s="40">
         <v>8.5099999999999995E-2</v>
       </c>
-      <c r="J6" s="41" t="s">
+      <c r="J6" s="37" t="s">
         <v>144</v>
       </c>
-      <c r="K6" s="45">
+      <c r="K6" s="40">
         <v>5.1299999999999998E-2</v>
       </c>
-      <c r="L6" s="41" t="s">
+      <c r="L6" s="37" t="s">
         <v>145</v>
       </c>
-      <c r="M6" s="45">
+      <c r="M6" s="40">
         <v>0.27310000000000001</v>
       </c>
-      <c r="N6" s="41" t="s">
+      <c r="N6" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="O6" s="45">
+      <c r="O6" s="40">
         <v>0.11990000000000001</v>
       </c>
-      <c r="P6" s="41" t="s">
+      <c r="P6" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="Q6" s="45">
+      <c r="Q6" s="40">
         <v>9.6699999999999994E-2</v>
       </c>
-      <c r="R6" s="41" t="s">
+      <c r="R6" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="S6" s="45">
+      <c r="S6" s="40">
         <v>7.7200000000000005E-2</v>
       </c>
-      <c r="T6" s="42" t="s">
+      <c r="T6" s="38" t="s">
         <v>152</v>
       </c>
-      <c r="U6" s="45">
+      <c r="U6" s="40">
         <v>4.1200000000000001E-2</v>
       </c>
     </row>
     <row r="7" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A7" s="30" t="s">
+      <c r="A7" s="27" t="s">
         <v>155</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="C7" s="45">
+      <c r="C7" s="40">
         <v>0.51329999999999998</v>
       </c>
-      <c r="D7" s="41" t="s">
+      <c r="D7" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="E7" s="45">
+      <c r="E7" s="40">
         <v>6.3700000000000007E-2</v>
       </c>
-      <c r="F7" s="42" t="s">
+      <c r="F7" s="38" t="s">
         <v>160</v>
       </c>
-      <c r="G7" s="45">
+      <c r="G7" s="40">
         <v>5.57E-2</v>
       </c>
-      <c r="H7" s="41" t="s">
+      <c r="H7" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="I7" s="45">
+      <c r="I7" s="40">
         <v>4.6100000000000002E-2</v>
       </c>
-      <c r="J7" s="41" t="s">
+      <c r="J7" s="37" t="s">
         <v>162</v>
       </c>
-      <c r="K7" s="45">
+      <c r="K7" s="40">
         <v>4.0500000000000001E-2</v>
       </c>
-      <c r="L7" s="41" t="s">
+      <c r="L7" s="37" t="s">
         <v>165</v>
       </c>
-      <c r="M7" s="45">
+      <c r="M7" s="40">
         <v>0.2351</v>
       </c>
-      <c r="N7" s="41" t="s">
+      <c r="N7" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="O7" s="45">
+      <c r="O7" s="40">
         <v>0.22209999999999999</v>
       </c>
-      <c r="P7" s="41" t="s">
+      <c r="P7" s="37" t="s">
         <v>168</v>
       </c>
-      <c r="Q7" s="45">
+      <c r="Q7" s="40">
         <v>4.3700000000000003E-2</v>
       </c>
-      <c r="R7" s="41" t="s">
+      <c r="R7" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="S7" s="45">
+      <c r="S7" s="40">
         <v>3.8399999999999997E-2</v>
       </c>
-      <c r="T7" s="42" t="s">
+      <c r="T7" s="38" t="s">
         <v>171</v>
       </c>
-      <c r="U7" s="45">
+      <c r="U7" s="40">
         <v>2.64E-2</v>
       </c>
     </row>
     <row r="8" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="43" t="s">
         <v>173</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="37" t="s">
         <v>179</v>
       </c>
-      <c r="C8" s="45">
+      <c r="C8" s="40">
         <v>0.66200000000000003</v>
       </c>
-      <c r="D8" s="42" t="s">
+      <c r="D8" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="E8" s="45">
+      <c r="E8" s="40">
         <v>0.1191</v>
       </c>
-      <c r="F8" s="42" t="s">
+      <c r="F8" s="38" t="s">
         <v>184</v>
       </c>
-      <c r="G8" s="45">
+      <c r="G8" s="40">
         <v>5.1400000000000001E-2</v>
       </c>
-      <c r="H8" s="42" t="s">
+      <c r="H8" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="I8" s="45">
+      <c r="I8" s="40">
         <v>4.5199999999999997E-2</v>
       </c>
-      <c r="J8" s="41" t="s">
+      <c r="J8" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="K8" s="45">
+      <c r="K8" s="40">
         <v>4.2599999999999999E-2</v>
       </c>
-      <c r="L8" s="42" t="s">
+      <c r="L8" s="38" t="s">
         <v>188</v>
       </c>
-      <c r="M8" s="45">
+      <c r="M8" s="40">
         <v>0.1158</v>
       </c>
-      <c r="N8" s="41" t="s">
+      <c r="N8" s="37" t="s">
         <v>191</v>
       </c>
-      <c r="O8" s="45">
+      <c r="O8" s="40">
         <v>8.6900000000000005E-2</v>
       </c>
-      <c r="P8" s="41" t="s">
+      <c r="P8" s="37" t="s">
         <v>193</v>
       </c>
-      <c r="Q8" s="45">
+      <c r="Q8" s="40">
         <v>8.5300000000000001E-2</v>
       </c>
-      <c r="R8" s="41" t="s">
+      <c r="R8" s="37" t="s">
         <v>195</v>
       </c>
-      <c r="S8" s="45">
+      <c r="S8" s="40">
         <v>7.0300000000000001E-2</v>
       </c>
-      <c r="T8" s="41" t="s">
+      <c r="T8" s="37" t="s">
         <v>197</v>
       </c>
-      <c r="U8" s="45">
+      <c r="U8" s="40">
         <v>6.4299999999999996E-2</v>
       </c>
     </row>
     <row r="9" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A9" s="25" t="s">
+      <c r="A9" s="22" t="s">
         <v>199</v>
       </c>
-      <c r="B9" s="26"/>
-      <c r="C9" s="28"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="28"/>
-      <c r="J9" s="26"/>
-      <c r="K9" s="28"/>
-      <c r="L9" s="26"/>
-      <c r="M9" s="28"/>
-      <c r="N9" s="26"/>
-      <c r="O9" s="28"/>
-      <c r="P9" s="26"/>
-      <c r="Q9" s="28"/>
-      <c r="R9" s="26"/>
-      <c r="S9" s="28"/>
-      <c r="T9" s="26"/>
-      <c r="U9" s="28"/>
+      <c r="B9" s="23"/>
+      <c r="C9" s="25"/>
+      <c r="D9" s="23"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="23"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="23"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="23"/>
+      <c r="K9" s="25"/>
+      <c r="L9" s="23"/>
+      <c r="M9" s="25"/>
+      <c r="N9" s="23"/>
+      <c r="O9" s="25"/>
+      <c r="P9" s="23"/>
+      <c r="Q9" s="25"/>
+      <c r="R9" s="23"/>
+      <c r="S9" s="25"/>
+      <c r="T9" s="23"/>
+      <c r="U9" s="25"/>
     </row>
     <row r="10" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A10" s="25" t="s">
+      <c r="A10" s="22" t="s">
         <v>203</v>
       </c>
-      <c r="B10" s="26"/>
-      <c r="C10" s="28"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="28"/>
-      <c r="J10" s="26"/>
-      <c r="K10" s="28"/>
-      <c r="L10" s="26"/>
-      <c r="M10" s="28"/>
-      <c r="N10" s="26"/>
-      <c r="O10" s="28"/>
-      <c r="P10" s="26"/>
-      <c r="Q10" s="28"/>
-      <c r="R10" s="26"/>
-      <c r="S10" s="28"/>
-      <c r="T10" s="26"/>
-      <c r="U10" s="28"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="25"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="25"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="25"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="25"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="25"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="25"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="25"/>
     </row>
     <row r="11" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A11" s="30" t="s">
+      <c r="A11" s="27" t="s">
         <v>206</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="C11" s="45">
+      <c r="C11" s="40">
         <v>0.38850000000000001</v>
       </c>
-      <c r="D11" s="41" t="s">
+      <c r="D11" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="E11" s="45">
+      <c r="E11" s="40">
         <v>0.17510000000000001</v>
       </c>
-      <c r="F11" s="41" t="s">
+      <c r="F11" s="37" t="s">
         <v>208</v>
       </c>
-      <c r="G11" s="45">
+      <c r="G11" s="40">
         <v>8.0199999999999994E-2</v>
       </c>
-      <c r="H11" s="41" t="s">
+      <c r="H11" s="37" t="s">
         <v>209</v>
       </c>
-      <c r="I11" s="45">
+      <c r="I11" s="40">
         <v>3.85E-2</v>
       </c>
-      <c r="J11" s="41" t="s">
+      <c r="J11" s="37" t="s">
         <v>210</v>
       </c>
-      <c r="K11" s="45">
+      <c r="K11" s="40">
         <v>3.5799999999999998E-2</v>
       </c>
-      <c r="L11" s="41" t="s">
+      <c r="L11" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="M11" s="45">
+      <c r="M11" s="40">
         <v>0.22739999999999999</v>
       </c>
-      <c r="N11" s="42" t="s">
+      <c r="N11" s="38" t="s">
         <v>211</v>
       </c>
-      <c r="O11" s="45">
+      <c r="O11" s="40">
         <v>0.13039999999999999</v>
       </c>
-      <c r="P11" s="41" t="s">
+      <c r="P11" s="37" t="s">
         <v>212</v>
       </c>
-      <c r="Q11" s="45">
+      <c r="Q11" s="40">
         <v>7.1599999999999997E-2</v>
       </c>
-      <c r="R11" s="42" t="s">
+      <c r="R11" s="38" t="s">
         <v>213</v>
       </c>
-      <c r="S11" s="45">
+      <c r="S11" s="40">
         <v>3.78E-2</v>
       </c>
-      <c r="T11" s="42" t="s">
+      <c r="T11" s="38" t="s">
         <v>214</v>
       </c>
-      <c r="U11" s="45">
+      <c r="U11" s="40">
         <v>2.9899999999999999E-2</v>
       </c>
     </row>
     <row r="12" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A12" s="25" t="s">
+      <c r="A12" s="22" t="s">
         <v>216</v>
       </c>
-      <c r="B12" s="26"/>
-      <c r="C12" s="28"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="26"/>
-      <c r="J12" s="26"/>
-      <c r="K12" s="26"/>
-      <c r="L12" s="26"/>
-      <c r="M12" s="26"/>
-      <c r="N12" s="26"/>
-      <c r="O12" s="26"/>
-      <c r="P12" s="26"/>
-      <c r="Q12" s="26"/>
-      <c r="R12" s="26"/>
-      <c r="S12" s="26"/>
-      <c r="T12" s="26"/>
-      <c r="U12" s="26"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="25"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
     </row>
     <row r="13" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A13" s="30" t="s">
+      <c r="A13" s="27" t="s">
         <v>217</v>
       </c>
-      <c r="B13" s="42" t="s">
+      <c r="B13" s="38" t="s">
         <v>186</v>
       </c>
-      <c r="C13" s="45">
+      <c r="C13" s="40">
         <v>0.63539999999999996</v>
       </c>
-      <c r="D13" s="42" t="s">
+      <c r="D13" s="38" t="s">
         <v>182</v>
       </c>
-      <c r="E13" s="45">
+      <c r="E13" s="40">
         <v>0.2374</v>
       </c>
-      <c r="F13" s="41" t="s">
+      <c r="F13" s="37" t="s">
         <v>218</v>
       </c>
-      <c r="G13" s="45">
+      <c r="G13" s="40">
         <v>0.08</v>
       </c>
-      <c r="H13" s="41" t="s">
+      <c r="H13" s="37" t="s">
         <v>219</v>
       </c>
-      <c r="I13" s="45">
+      <c r="I13" s="40">
         <v>1.8700000000000001E-2</v>
       </c>
-      <c r="J13" s="41" t="s">
+      <c r="J13" s="37" t="s">
         <v>220</v>
       </c>
-      <c r="K13" s="45">
+      <c r="K13" s="40">
         <v>1.8700000000000001E-2</v>
       </c>
-      <c r="L13" s="41" t="s">
+      <c r="L13" s="37" t="s">
         <v>212</v>
       </c>
-      <c r="M13" s="45">
+      <c r="M13" s="40">
         <v>0.26619999999999999</v>
       </c>
-      <c r="N13" s="41" t="s">
+      <c r="N13" s="37" t="s">
         <v>221</v>
       </c>
-      <c r="O13" s="45">
+      <c r="O13" s="40">
         <v>0.14630000000000001</v>
       </c>
-      <c r="P13" s="41" t="s">
+      <c r="P13" s="37" t="s">
         <v>222</v>
       </c>
-      <c r="Q13" s="45">
+      <c r="Q13" s="40">
         <v>0.13650000000000001</v>
       </c>
-      <c r="R13" s="41" t="s">
+      <c r="R13" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="S13" s="45">
+      <c r="S13" s="40">
         <v>0.1343</v>
       </c>
-      <c r="T13" s="42" t="s">
+      <c r="T13" s="38" t="s">
         <v>223</v>
       </c>
-      <c r="U13" s="45">
+      <c r="U13" s="40">
         <v>0.1095</v>
       </c>
     </row>
     <row r="14" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A14" s="30" t="s">
+      <c r="A14" s="27" t="s">
         <v>224</v>
       </c>
-      <c r="B14" s="42" t="s">
+      <c r="B14" s="38" t="s">
         <v>225</v>
       </c>
-      <c r="C14" s="45">
+      <c r="C14" s="40">
         <v>0.312</v>
       </c>
-      <c r="D14" s="42" t="s">
+      <c r="D14" s="38" t="s">
         <v>226</v>
       </c>
-      <c r="E14" s="45">
+      <c r="E14" s="40">
         <v>0.1275</v>
       </c>
-      <c r="F14" s="42" t="s">
+      <c r="F14" s="38" t="s">
         <v>227</v>
       </c>
-      <c r="G14" s="45">
+      <c r="G14" s="40">
         <v>7.1499999999999994E-2</v>
       </c>
-      <c r="H14" s="42" t="s">
+      <c r="H14" s="38" t="s">
         <v>228</v>
       </c>
-      <c r="I14" s="45">
+      <c r="I14" s="40">
         <v>4.2099999999999999E-2</v>
       </c>
-      <c r="J14" s="42" t="s">
+      <c r="J14" s="38" t="s">
         <v>229</v>
       </c>
-      <c r="K14" s="45">
+      <c r="K14" s="40">
         <v>3.6999999999999998E-2</v>
       </c>
-      <c r="L14" s="41" t="s">
+      <c r="L14" s="37" t="s">
         <v>212</v>
       </c>
-      <c r="M14" s="45">
+      <c r="M14" s="40">
         <v>0.25230000000000002</v>
       </c>
-      <c r="N14" s="42" t="s">
+      <c r="N14" s="38" t="s">
         <v>230</v>
       </c>
-      <c r="O14" s="45">
+      <c r="O14" s="40">
         <v>0.1656</v>
       </c>
-      <c r="P14" s="41" t="s">
+      <c r="P14" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="Q14" s="45">
+      <c r="Q14" s="40">
         <v>0.11600000000000001</v>
       </c>
-      <c r="R14" s="42" t="s">
+      <c r="R14" s="38" t="s">
         <v>231</v>
       </c>
-      <c r="S14" s="45">
+      <c r="S14" s="40">
         <v>7.6700000000000004E-2</v>
       </c>
-      <c r="T14" s="42" t="s">
+      <c r="T14" s="38" t="s">
         <v>232</v>
       </c>
-      <c r="U14" s="45">
+      <c r="U14" s="40">
         <v>7.6300000000000007E-2</v>
       </c>
     </row>
     <row r="15" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A15" s="30" t="s">
+      <c r="A15" s="27" t="s">
         <v>233</v>
       </c>
-      <c r="B15" s="41" t="s">
+      <c r="B15" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="C15" s="45">
+      <c r="C15" s="40">
         <v>0.52759999999999996</v>
       </c>
-      <c r="D15" s="41" t="s">
+      <c r="D15" s="37" t="s">
         <v>234</v>
       </c>
-      <c r="E15" s="45">
+      <c r="E15" s="40">
         <v>0.10920000000000001</v>
       </c>
-      <c r="F15" s="41" t="s">
+      <c r="F15" s="37" t="s">
         <v>119</v>
       </c>
-      <c r="G15" s="45">
+      <c r="G15" s="40">
         <v>9.4299999999999995E-2</v>
       </c>
-      <c r="H15" s="41" t="s">
+      <c r="H15" s="37" t="s">
         <v>235</v>
       </c>
-      <c r="I15" s="45">
+      <c r="I15" s="40">
         <v>9.4299999999999995E-2</v>
       </c>
-      <c r="J15" s="41" t="s">
+      <c r="J15" s="37" t="s">
         <v>236</v>
       </c>
-      <c r="K15" s="45">
+      <c r="K15" s="40">
         <v>9.4299999999999995E-2</v>
       </c>
-      <c r="L15" s="41" t="s">
+      <c r="L15" s="37" t="s">
         <v>237</v>
       </c>
-      <c r="M15" s="45">
+      <c r="M15" s="40">
         <v>0.20030000000000001</v>
       </c>
-      <c r="N15" s="41" t="s">
+      <c r="N15" s="37" t="s">
         <v>238</v>
       </c>
-      <c r="O15" s="45">
+      <c r="O15" s="40">
         <v>0.1787</v>
       </c>
-      <c r="P15" s="41" t="s">
+      <c r="P15" s="37" t="s">
         <v>239</v>
       </c>
-      <c r="Q15" s="45">
+      <c r="Q15" s="40">
         <v>0.1691</v>
       </c>
-      <c r="R15" s="41" t="s">
+      <c r="R15" s="37" t="s">
         <v>240</v>
       </c>
-      <c r="S15" s="45">
+      <c r="S15" s="40">
         <v>0.1067</v>
       </c>
-      <c r="T15" s="41" t="s">
+      <c r="T15" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="U15" s="45">
+      <c r="U15" s="40">
         <v>9.64E-2</v>
       </c>
     </row>
     <row r="16" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A16" s="30" t="s">
+      <c r="A16" s="27" t="s">
         <v>241</v>
       </c>
-      <c r="B16" s="41" t="s">
+      <c r="B16" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="C16" s="45">
+      <c r="C16" s="40">
         <v>0.77239999999999998</v>
       </c>
-      <c r="D16" s="41" t="s">
+      <c r="D16" s="37" t="s">
         <v>242</v>
       </c>
-      <c r="E16" s="45">
+      <c r="E16" s="40">
         <v>3.1800000000000002E-2</v>
       </c>
-      <c r="F16" s="41" t="s">
+      <c r="F16" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="G16" s="45">
+      <c r="G16" s="40">
         <v>2.6100000000000002E-2</v>
       </c>
-      <c r="H16" s="41" t="s">
+      <c r="H16" s="37" t="s">
         <v>243</v>
       </c>
-      <c r="I16" s="45">
+      <c r="I16" s="40">
         <v>2.52E-2</v>
       </c>
-      <c r="J16" s="41" t="s">
+      <c r="J16" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="K16" s="45">
+      <c r="K16" s="40">
         <v>2.1700000000000001E-2</v>
       </c>
-      <c r="L16" s="41" t="s">
+      <c r="L16" s="37" t="s">
         <v>244</v>
       </c>
-      <c r="M16" s="45">
+      <c r="M16" s="40">
         <v>0.21590000000000001</v>
       </c>
-      <c r="N16" s="41" t="s">
+      <c r="N16" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="O16" s="45">
+      <c r="O16" s="40">
         <v>9.1600000000000001E-2</v>
       </c>
-      <c r="P16" s="41" t="s">
+      <c r="P16" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="Q16" s="45">
+      <c r="Q16" s="40">
         <v>7.7700000000000005E-2</v>
       </c>
-      <c r="R16" s="41" t="s">
+      <c r="R16" s="37" t="s">
         <v>245</v>
       </c>
-      <c r="S16" s="45">
+      <c r="S16" s="40">
         <v>6.13E-2</v>
       </c>
-      <c r="T16" s="41" t="s">
+      <c r="T16" s="37" t="s">
         <v>246</v>
       </c>
-      <c r="U16" s="45">
+      <c r="U16" s="40">
         <v>4.65E-2</v>
       </c>
     </row>
     <row r="17" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A17" s="25" t="s">
+      <c r="A17" s="22" t="s">
         <v>247</v>
       </c>
-      <c r="B17" s="26"/>
-      <c r="C17" s="28"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="28"/>
-      <c r="J17" s="26"/>
-      <c r="K17" s="28"/>
-      <c r="L17" s="26"/>
-      <c r="M17" s="28"/>
-      <c r="N17" s="26"/>
-      <c r="O17" s="28"/>
-      <c r="P17" s="26"/>
-      <c r="Q17" s="28"/>
-      <c r="R17" s="26"/>
-      <c r="S17" s="28"/>
-      <c r="T17" s="26"/>
-      <c r="U17" s="28"/>
+      <c r="B17" s="23"/>
+      <c r="C17" s="25"/>
+      <c r="D17" s="23"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="23"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="23"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="23"/>
+      <c r="K17" s="25"/>
+      <c r="L17" s="23"/>
+      <c r="M17" s="25"/>
+      <c r="N17" s="23"/>
+      <c r="O17" s="25"/>
+      <c r="P17" s="23"/>
+      <c r="Q17" s="25"/>
+      <c r="R17" s="23"/>
+      <c r="S17" s="25"/>
+      <c r="T17" s="23"/>
+      <c r="U17" s="25"/>
     </row>
     <row r="18" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A18" s="25" t="s">
+      <c r="A18" s="22" t="s">
         <v>248</v>
       </c>
-      <c r="B18" s="26"/>
-      <c r="C18" s="28"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="28"/>
-      <c r="J18" s="26"/>
-      <c r="K18" s="28"/>
-      <c r="L18" s="26"/>
-      <c r="M18" s="28"/>
-      <c r="N18" s="26"/>
-      <c r="O18" s="28"/>
-      <c r="P18" s="26"/>
-      <c r="Q18" s="28"/>
-      <c r="R18" s="26"/>
-      <c r="S18" s="28"/>
-      <c r="T18" s="26"/>
-      <c r="U18" s="28"/>
+      <c r="B18" s="23"/>
+      <c r="C18" s="25"/>
+      <c r="D18" s="23"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="23"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="23"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="23"/>
+      <c r="K18" s="25"/>
+      <c r="L18" s="23"/>
+      <c r="M18" s="25"/>
+      <c r="N18" s="23"/>
+      <c r="O18" s="25"/>
+      <c r="P18" s="23"/>
+      <c r="Q18" s="25"/>
+      <c r="R18" s="23"/>
+      <c r="S18" s="25"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="25"/>
     </row>
     <row r="19" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A19" s="25" t="s">
+      <c r="A19" s="22" t="s">
         <v>249</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="28"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="28"/>
-      <c r="J19" s="26"/>
-      <c r="K19" s="28"/>
-      <c r="L19" s="26"/>
-      <c r="M19" s="28"/>
-      <c r="N19" s="26"/>
-      <c r="O19" s="28"/>
-      <c r="P19" s="26"/>
-      <c r="Q19" s="28"/>
-      <c r="R19" s="26"/>
-      <c r="S19" s="28"/>
-      <c r="T19" s="26"/>
-      <c r="U19" s="28"/>
+      <c r="B19" s="23"/>
+      <c r="C19" s="25"/>
+      <c r="D19" s="23"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="23"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="23"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="23"/>
+      <c r="K19" s="25"/>
+      <c r="L19" s="23"/>
+      <c r="M19" s="25"/>
+      <c r="N19" s="23"/>
+      <c r="O19" s="25"/>
+      <c r="P19" s="23"/>
+      <c r="Q19" s="25"/>
+      <c r="R19" s="23"/>
+      <c r="S19" s="25"/>
+      <c r="T19" s="23"/>
+      <c r="U19" s="25"/>
     </row>
     <row r="20" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A20" s="30" t="s">
+      <c r="A20" s="27" t="s">
         <v>250</v>
       </c>
-      <c r="B20" s="41" t="s">
+      <c r="B20" s="37" t="s">
         <v>251</v>
       </c>
-      <c r="C20" s="37">
+      <c r="C20" s="33">
         <v>0.41370000000000001</v>
       </c>
-      <c r="D20" s="41" t="s">
+      <c r="D20" s="37" t="s">
         <v>252</v>
       </c>
-      <c r="E20" s="37">
+      <c r="E20" s="33">
         <v>0.23139999999999999</v>
       </c>
-      <c r="F20" s="41" t="s">
+      <c r="F20" s="37" t="s">
         <v>209</v>
       </c>
-      <c r="G20" s="37">
+      <c r="G20" s="33">
         <v>0.113</v>
       </c>
-      <c r="H20" s="41" t="s">
+      <c r="H20" s="37" t="s">
         <v>253</v>
       </c>
-      <c r="I20" s="37">
+      <c r="I20" s="33">
         <v>6.7799999999999999E-2</v>
       </c>
-      <c r="J20" s="41" t="s">
+      <c r="J20" s="37" t="s">
         <v>254</v>
       </c>
-      <c r="K20" s="37">
+      <c r="K20" s="33">
         <v>5.2499999999999998E-2</v>
       </c>
-      <c r="L20" s="41" t="s">
+      <c r="L20" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="M20" s="37">
+      <c r="M20" s="33">
         <v>0.31900000000000001</v>
       </c>
-      <c r="N20" s="42" t="s">
+      <c r="N20" s="38" t="s">
         <v>255</v>
       </c>
-      <c r="O20" s="37">
+      <c r="O20" s="33">
         <v>0.2079</v>
       </c>
-      <c r="P20" s="41" t="s">
+      <c r="P20" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="Q20" s="37">
+      <c r="Q20" s="33">
         <v>0.11849999999999999</v>
       </c>
-      <c r="R20" s="41" t="s">
+      <c r="R20" s="37" t="s">
         <v>256</v>
       </c>
-      <c r="S20" s="37">
+      <c r="S20" s="33">
         <v>4.7399999999999998E-2</v>
       </c>
-      <c r="T20" s="41" t="s">
+      <c r="T20" s="37" t="s">
         <v>257</v>
       </c>
-      <c r="U20" s="37">
+      <c r="U20" s="33">
         <v>4.1300000000000003E-2</v>
       </c>
     </row>
     <row r="21" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A21" s="30" t="s">
+      <c r="A21" s="27" t="s">
         <v>258</v>
       </c>
-      <c r="B21" s="41" t="s">
+      <c r="B21" s="37" t="s">
         <v>259</v>
       </c>
-      <c r="C21" s="49">
+      <c r="C21" s="44">
         <v>1</v>
       </c>
       <c r="D21" s="8"/>
-      <c r="E21" s="45"/>
+      <c r="E21" s="40"/>
       <c r="F21" s="8"/>
-      <c r="G21" s="45"/>
+      <c r="G21" s="40"/>
       <c r="H21" s="8"/>
-      <c r="I21" s="45"/>
+      <c r="I21" s="40"/>
       <c r="J21" s="8"/>
-      <c r="K21" s="45"/>
+      <c r="K21" s="40"/>
       <c r="L21" s="8"/>
-      <c r="M21" s="37">
+      <c r="M21" s="33">
         <v>0.88900000000000001</v>
       </c>
-      <c r="N21" s="41" t="s">
+      <c r="N21" s="37" t="s">
         <v>260</v>
       </c>
-      <c r="O21" s="37">
+      <c r="O21" s="33">
         <v>5.3499999999999999E-2</v>
       </c>
-      <c r="P21" s="41" t="s">
+      <c r="P21" s="37" t="s">
         <v>261</v>
       </c>
-      <c r="Q21" s="37">
+      <c r="Q21" s="33">
         <v>2.3199999999999998E-2</v>
       </c>
-      <c r="R21" s="42" t="s">
+      <c r="R21" s="38" t="s">
         <v>262</v>
       </c>
-      <c r="S21" s="37">
+      <c r="S21" s="33">
         <v>1.6899999999999998E-2</v>
       </c>
-      <c r="T21" s="42" t="s">
+      <c r="T21" s="38" t="s">
         <v>263</v>
       </c>
-      <c r="U21" s="37">
+      <c r="U21" s="33">
         <v>1.0699999999999999E-2</v>
       </c>
     </row>
     <row r="22" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A22" s="25" t="s">
+      <c r="A22" s="22" t="s">
         <v>264</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="28"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="28"/>
-      <c r="J22" s="26"/>
-      <c r="K22" s="28"/>
-      <c r="L22" s="26"/>
-      <c r="M22" s="28"/>
-      <c r="N22" s="26"/>
-      <c r="O22" s="28"/>
-      <c r="P22" s="26"/>
-      <c r="Q22" s="28"/>
-      <c r="R22" s="26"/>
-      <c r="S22" s="28"/>
-      <c r="T22" s="26"/>
-      <c r="U22" s="28"/>
+      <c r="B22" s="23"/>
+      <c r="C22" s="25"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="23"/>
+      <c r="K22" s="25"/>
+      <c r="L22" s="23"/>
+      <c r="M22" s="25"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="25"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="25"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="25"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="25"/>
     </row>
     <row r="23" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A23" s="30" t="s">
+      <c r="A23" s="27" t="s">
         <v>265</v>
       </c>
-      <c r="B23" s="41" t="s">
+      <c r="B23" s="37" t="s">
         <v>266</v>
       </c>
-      <c r="C23" s="37">
+      <c r="C23" s="33">
         <v>0.1226</v>
       </c>
-      <c r="D23" s="41" t="s">
+      <c r="D23" s="37" t="s">
         <v>267</v>
       </c>
-      <c r="E23" s="37">
+      <c r="E23" s="33">
         <v>0.1226</v>
       </c>
       <c r="F23" s="8" t="s">
         <v>177</v>
       </c>
-      <c r="G23" s="37">
+      <c r="G23" s="33">
         <v>0.1226</v>
       </c>
-      <c r="H23" s="42" t="s">
+      <c r="H23" s="38" t="s">
         <v>268</v>
       </c>
-      <c r="I23" s="37">
+      <c r="I23" s="33">
         <v>0.1226</v>
       </c>
-      <c r="J23" s="41" t="s">
+      <c r="J23" s="37" t="s">
         <v>269</v>
       </c>
-      <c r="K23" s="37">
+      <c r="K23" s="33">
         <v>0.1206</v>
       </c>
-      <c r="L23" s="41" t="s">
+      <c r="L23" s="37" t="s">
         <v>270</v>
       </c>
-      <c r="M23" s="37">
+      <c r="M23" s="33">
         <v>0.1404</v>
       </c>
-      <c r="N23" s="41" t="s">
+      <c r="N23" s="37" t="s">
         <v>271</v>
       </c>
-      <c r="O23" s="37">
+      <c r="O23" s="33">
         <v>0.12889999999999999</v>
       </c>
-      <c r="P23" s="42" t="s">
+      <c r="P23" s="38" t="s">
         <v>272</v>
       </c>
-      <c r="Q23" s="37">
+      <c r="Q23" s="33">
         <v>0.1046</v>
       </c>
-      <c r="R23" s="42" t="s">
+      <c r="R23" s="38" t="s">
         <v>273</v>
       </c>
-      <c r="S23" s="37">
+      <c r="S23" s="33">
         <v>0.10009999999999999</v>
       </c>
-      <c r="T23" s="41" t="s">
+      <c r="T23" s="37" t="s">
         <v>274</v>
       </c>
-      <c r="U23" s="37">
+      <c r="U23" s="33">
         <v>0.10009999999999999</v>
       </c>
     </row>
     <row r="24" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A24" s="25" t="s">
+      <c r="A24" s="22" t="s">
         <v>275</v>
       </c>
-      <c r="B24" s="26"/>
-      <c r="C24" s="28"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="28"/>
-      <c r="J24" s="26"/>
-      <c r="K24" s="28"/>
-      <c r="L24" s="26"/>
-      <c r="M24" s="28"/>
-      <c r="N24" s="26"/>
-      <c r="O24" s="28"/>
-      <c r="P24" s="26"/>
-      <c r="Q24" s="28"/>
-      <c r="R24" s="26"/>
-      <c r="S24" s="28"/>
-      <c r="T24" s="26"/>
-      <c r="U24" s="28"/>
+      <c r="B24" s="23"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="23"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="23"/>
+      <c r="M24" s="25"/>
+      <c r="N24" s="23"/>
+      <c r="O24" s="25"/>
+      <c r="P24" s="23"/>
+      <c r="Q24" s="25"/>
+      <c r="R24" s="23"/>
+      <c r="S24" s="25"/>
+      <c r="T24" s="23"/>
+      <c r="U24" s="25"/>
     </row>
     <row r="25" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A25" s="25" t="s">
+      <c r="A25" s="22" t="s">
         <v>276</v>
       </c>
-      <c r="B25" s="26"/>
-      <c r="C25" s="28"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="28"/>
-      <c r="J25" s="26"/>
-      <c r="K25" s="28"/>
-      <c r="L25" s="26"/>
-      <c r="M25" s="28"/>
-      <c r="N25" s="26"/>
-      <c r="O25" s="28"/>
-      <c r="P25" s="26"/>
-      <c r="Q25" s="28"/>
-      <c r="R25" s="26"/>
-      <c r="S25" s="28"/>
-      <c r="T25" s="26"/>
-      <c r="U25" s="28"/>
+      <c r="B25" s="23"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="23"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="25"/>
+      <c r="N25" s="23"/>
+      <c r="O25" s="25"/>
+      <c r="P25" s="23"/>
+      <c r="Q25" s="25"/>
+      <c r="R25" s="23"/>
+      <c r="S25" s="25"/>
+      <c r="T25" s="23"/>
+      <c r="U25" s="25"/>
     </row>
     <row r="26" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A26" s="30" t="s">
+      <c r="A26" s="27" t="s">
         <v>277</v>
       </c>
-      <c r="B26" s="41" t="s">
+      <c r="B26" s="37" t="s">
         <v>278</v>
       </c>
-      <c r="C26" s="37">
+      <c r="C26" s="33">
         <v>0.33300000000000002</v>
       </c>
-      <c r="D26" s="41" t="s">
+      <c r="D26" s="37" t="s">
         <v>279</v>
       </c>
-      <c r="E26" s="37">
+      <c r="E26" s="33">
         <v>0.33300000000000002</v>
       </c>
-      <c r="F26" s="41" t="s">
+      <c r="F26" s="37" t="s">
         <v>280</v>
       </c>
-      <c r="G26" s="37">
+      <c r="G26" s="33">
         <v>0.112</v>
       </c>
-      <c r="H26" s="42" t="s">
+      <c r="H26" s="38" t="s">
         <v>281</v>
       </c>
-      <c r="I26" s="37">
+      <c r="I26" s="33">
         <v>5.5500000000000001E-2</v>
       </c>
-      <c r="J26" s="41" t="s">
+      <c r="J26" s="37" t="s">
         <v>282</v>
       </c>
-      <c r="K26" s="37">
+      <c r="K26" s="33">
         <v>5.5500000000000001E-2</v>
       </c>
-      <c r="L26" s="42" t="s">
+      <c r="L26" s="38" t="s">
         <v>283</v>
       </c>
-      <c r="M26" s="37">
+      <c r="M26" s="33">
         <v>0.215</v>
       </c>
-      <c r="N26" s="41" t="s">
+      <c r="N26" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="O26" s="37">
+      <c r="O26" s="33">
         <v>0.1434</v>
       </c>
-      <c r="P26" s="41" t="s">
+      <c r="P26" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="Q26" s="37">
+      <c r="Q26" s="33">
         <v>0.13220000000000001</v>
       </c>
-      <c r="R26" s="41" t="s">
+      <c r="R26" s="37" t="s">
         <v>286</v>
       </c>
-      <c r="S26" s="37">
+      <c r="S26" s="33">
         <v>0.1187</v>
       </c>
-      <c r="T26" s="41" t="s">
+      <c r="T26" s="37" t="s">
         <v>212</v>
       </c>
-      <c r="U26" s="37">
+      <c r="U26" s="33">
         <v>0.11799999999999999</v>
       </c>
     </row>
     <row r="27" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A27" s="30" t="s">
+      <c r="A27" s="27" t="s">
         <v>287</v>
       </c>
-      <c r="B27" s="41" t="s">
+      <c r="B27" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="C27" s="37">
+      <c r="C27" s="33">
         <v>0.38250000000000001</v>
       </c>
-      <c r="D27" s="41" t="s">
+      <c r="D27" s="37" t="s">
         <v>288</v>
       </c>
-      <c r="E27" s="37">
+      <c r="E27" s="33">
         <v>0.2392</v>
       </c>
-      <c r="F27" s="41" t="s">
+      <c r="F27" s="37" t="s">
         <v>266</v>
       </c>
-      <c r="G27" s="37">
+      <c r="G27" s="33">
         <v>0.1593</v>
       </c>
-      <c r="H27" s="41" t="s">
+      <c r="H27" s="37" t="s">
         <v>289</v>
       </c>
-      <c r="I27" s="37">
+      <c r="I27" s="33">
         <v>0.1043</v>
       </c>
-      <c r="J27" s="41" t="s">
+      <c r="J27" s="37" t="s">
         <v>290</v>
       </c>
-      <c r="K27" s="37">
+      <c r="K27" s="33">
         <v>9.7799999999999998E-2</v>
       </c>
-      <c r="L27" s="41" t="s">
+      <c r="L27" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="M27" s="37">
+      <c r="M27" s="33">
         <v>0.21290000000000001</v>
       </c>
-      <c r="N27" s="41" t="s">
+      <c r="N27" s="37" t="s">
         <v>291</v>
       </c>
-      <c r="O27" s="37">
+      <c r="O27" s="33">
         <v>0.1477</v>
       </c>
-      <c r="P27" s="41" t="s">
+      <c r="P27" s="37" t="s">
         <v>292</v>
       </c>
-      <c r="Q27" s="37">
+      <c r="Q27" s="33">
         <v>0.1018</v>
       </c>
-      <c r="R27" s="41" t="s">
+      <c r="R27" s="37" t="s">
         <v>293</v>
       </c>
-      <c r="S27" s="37">
+      <c r="S27" s="33">
         <v>5.4899999999999997E-2</v>
       </c>
-      <c r="T27" s="42" t="s">
+      <c r="T27" s="38" t="s">
         <v>294</v>
       </c>
-      <c r="U27" s="37">
+      <c r="U27" s="33">
         <v>5.28E-2</v>
       </c>
     </row>
     <row r="28" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A28" s="25" t="s">
+      <c r="A28" s="22" t="s">
         <v>295</v>
       </c>
-      <c r="B28" s="26"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="26"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="26"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="26"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="26"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="26"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="26"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="26"/>
-      <c r="Q28" s="28"/>
-      <c r="R28" s="26"/>
-      <c r="S28" s="28"/>
-      <c r="T28" s="26"/>
-      <c r="U28" s="28"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="25"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="25"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="25"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="25"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="25"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="25"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="25"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="25"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="25"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="25"/>
     </row>
     <row r="29" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A29" s="30" t="s">
+      <c r="A29" s="27" t="s">
         <v>296</v>
       </c>
-      <c r="B29" s="41" t="s">
+      <c r="B29" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="C29" s="37">
+      <c r="C29" s="33">
         <v>0.44450000000000001</v>
       </c>
-      <c r="D29" s="41" t="s">
+      <c r="D29" s="37" t="s">
         <v>297</v>
       </c>
-      <c r="E29" s="37">
+      <c r="E29" s="33">
         <v>0.18140000000000001</v>
       </c>
-      <c r="F29" s="41" t="s">
+      <c r="F29" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="G29" s="37">
+      <c r="G29" s="33">
         <v>5.9900000000000002E-2</v>
       </c>
-      <c r="H29" s="41" t="s">
+      <c r="H29" s="37" t="s">
         <v>298</v>
       </c>
-      <c r="I29" s="37">
+      <c r="I29" s="33">
         <v>5.16E-2</v>
       </c>
-      <c r="J29" s="41" t="s">
+      <c r="J29" s="37" t="s">
         <v>299</v>
       </c>
-      <c r="K29" s="37">
+      <c r="K29" s="33">
         <v>4.0599999999999997E-2</v>
       </c>
-      <c r="L29" s="41" t="s">
+      <c r="L29" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="M29" s="37">
+      <c r="M29" s="33">
         <v>7.6300000000000007E-2</v>
       </c>
-      <c r="N29" s="41" t="s">
+      <c r="N29" s="37" t="s">
         <v>257</v>
       </c>
-      <c r="O29" s="37">
+      <c r="O29" s="33">
         <v>5.6899999999999999E-2</v>
       </c>
-      <c r="P29" s="41" t="s">
+      <c r="P29" s="37" t="s">
         <v>131</v>
       </c>
-      <c r="Q29" s="37">
+      <c r="Q29" s="33">
         <v>4.2999999999999997E-2</v>
       </c>
-      <c r="R29" s="41" t="s">
+      <c r="R29" s="37" t="s">
         <v>147</v>
       </c>
-      <c r="S29" s="37">
+      <c r="S29" s="33">
         <v>3.5700000000000003E-2</v>
       </c>
-      <c r="T29" s="41" t="s">
+      <c r="T29" s="37" t="s">
         <v>149</v>
       </c>
-      <c r="U29" s="37">
+      <c r="U29" s="33">
         <v>3.2899999999999999E-2</v>
       </c>
     </row>
     <row r="30" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A30" s="30" t="s">
+      <c r="A30" s="27" t="s">
         <v>266</v>
       </c>
-      <c r="B30" s="41" t="s">
+      <c r="B30" s="37" t="s">
         <v>300</v>
       </c>
-      <c r="C30" s="37">
+      <c r="C30" s="33">
         <v>0.19370000000000001</v>
       </c>
-      <c r="D30" s="41" t="s">
+      <c r="D30" s="37" t="s">
         <v>301</v>
       </c>
-      <c r="E30" s="37">
+      <c r="E30" s="33">
         <v>0.1169</v>
       </c>
-      <c r="F30" s="41" t="s">
+      <c r="F30" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="G30" s="37">
+      <c r="G30" s="33">
         <v>9.0700000000000003E-2</v>
       </c>
-      <c r="H30" s="42" t="s">
+      <c r="H30" s="38" t="s">
         <v>302</v>
       </c>
-      <c r="I30" s="37">
+      <c r="I30" s="33">
         <v>8.0100000000000005E-2</v>
       </c>
-      <c r="J30" s="41" t="s">
+      <c r="J30" s="37" t="s">
         <v>303</v>
       </c>
-      <c r="K30" s="37">
+      <c r="K30" s="33">
         <v>4.9599999999999998E-2</v>
       </c>
-      <c r="L30" s="41" t="s">
+      <c r="L30" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="M30" s="37">
+      <c r="M30" s="33">
         <v>6.4399999999999999E-2</v>
       </c>
-      <c r="N30" s="41" t="s">
+      <c r="N30" s="37" t="s">
         <v>304</v>
       </c>
-      <c r="O30" s="37">
+      <c r="O30" s="33">
         <v>5.9700000000000003E-2</v>
       </c>
-      <c r="P30" s="41" t="s">
+      <c r="P30" s="37" t="s">
         <v>270</v>
       </c>
-      <c r="Q30" s="37">
+      <c r="Q30" s="33">
         <v>4.9099999999999998E-2</v>
       </c>
-      <c r="R30" s="41" t="s">
+      <c r="R30" s="37" t="s">
         <v>305</v>
       </c>
-      <c r="S30" s="37">
+      <c r="S30" s="33">
         <v>3.6799999999999999E-2</v>
       </c>
-      <c r="T30" s="41" t="s">
+      <c r="T30" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="U30" s="37">
+      <c r="U30" s="33">
         <v>3.0200000000000001E-2</v>
       </c>
     </row>
     <row r="31" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A31" s="30" t="s">
+      <c r="A31" s="27" t="s">
         <v>306</v>
       </c>
-      <c r="B31" s="41" t="s">
+      <c r="B31" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="C31" s="37">
+      <c r="C31" s="33">
         <v>0.35060000000000002</v>
       </c>
-      <c r="D31" s="42" t="s">
+      <c r="D31" s="38" t="s">
         <v>118</v>
       </c>
-      <c r="E31" s="37">
+      <c r="E31" s="33">
         <v>0.2392</v>
       </c>
-      <c r="F31" s="41" t="s">
+      <c r="F31" s="37" t="s">
         <v>266</v>
       </c>
-      <c r="G31" s="37">
+      <c r="G31" s="33">
         <v>0.1132</v>
       </c>
-      <c r="H31" s="41" t="s">
+      <c r="H31" s="37" t="s">
         <v>307</v>
       </c>
-      <c r="I31" s="37">
+      <c r="I31" s="33">
         <v>4.1399999999999999E-2</v>
       </c>
-      <c r="J31" s="41" t="s">
+      <c r="J31" s="37" t="s">
         <v>308</v>
       </c>
-      <c r="K31" s="37">
+      <c r="K31" s="33">
         <v>3.5400000000000001E-2</v>
       </c>
-      <c r="L31" s="41" t="s">
+      <c r="L31" s="37" t="s">
         <v>167</v>
       </c>
-      <c r="M31" s="37">
+      <c r="M31" s="33">
         <v>0.37440000000000001</v>
       </c>
-      <c r="N31" s="41" t="s">
+      <c r="N31" s="37" t="s">
         <v>305</v>
       </c>
-      <c r="O31" s="37">
+      <c r="O31" s="33">
         <v>0.1258</v>
       </c>
-      <c r="P31" s="41" t="s">
+      <c r="P31" s="37" t="s">
         <v>284</v>
       </c>
-      <c r="Q31" s="37">
+      <c r="Q31" s="33">
         <v>3.5299999999999998E-2</v>
       </c>
-      <c r="R31" s="41" t="s">
+      <c r="R31" s="37" t="s">
         <v>309</v>
       </c>
-      <c r="S31" s="37">
+      <c r="S31" s="33">
         <v>3.2199999999999999E-2</v>
       </c>
-      <c r="T31" s="41" t="s">
+      <c r="T31" s="37" t="s">
         <v>117</v>
       </c>
-      <c r="U31" s="37">
+      <c r="U31" s="33">
         <v>3.1399999999999997E-2</v>
       </c>
     </row>
     <row r="32" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A32" s="30" t="s">
+      <c r="A32" s="27" t="s">
         <v>310</v>
       </c>
-      <c r="B32" s="41" t="s">
+      <c r="B32" s="37" t="s">
         <v>311</v>
       </c>
-      <c r="C32" s="37">
+      <c r="C32" s="33">
         <v>0.37409999999999999</v>
       </c>
-      <c r="D32" s="41" t="s">
+      <c r="D32" s="37" t="s">
         <v>312</v>
       </c>
-      <c r="E32" s="37">
+      <c r="E32" s="33">
         <v>0.2409</v>
       </c>
-      <c r="F32" s="41" t="s">
+      <c r="F32" s="37" t="s">
         <v>313</v>
       </c>
-      <c r="G32" s="37">
+      <c r="G32" s="33">
         <v>0.1195</v>
       </c>
-      <c r="H32" s="41" t="s">
+      <c r="H32" s="37" t="s">
         <v>314</v>
       </c>
-      <c r="I32" s="37">
+      <c r="I32" s="33">
         <v>7.5899999999999995E-2</v>
       </c>
-      <c r="J32" s="41" t="s">
+      <c r="J32" s="37" t="s">
         <v>161</v>
       </c>
-      <c r="K32" s="37">
+      <c r="K32" s="33">
         <v>5.4199999999999998E-2</v>
       </c>
-      <c r="L32" s="41" t="s">
+      <c r="L32" s="37" t="s">
         <v>315</v>
       </c>
-      <c r="M32" s="37">
+      <c r="M32" s="33">
         <v>0.17699999999999999</v>
       </c>
-      <c r="N32" s="41" t="s">
+      <c r="N32" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="O32" s="37">
+      <c r="O32" s="33">
         <v>0.121</v>
       </c>
-      <c r="P32" s="41" t="s">
+      <c r="P32" s="37" t="s">
         <v>291</v>
       </c>
-      <c r="Q32" s="37">
+      <c r="Q32" s="33">
         <v>9.5600000000000004E-2</v>
       </c>
-      <c r="R32" s="41" t="s">
+      <c r="R32" s="37" t="s">
         <v>312</v>
       </c>
-      <c r="S32" s="37">
+      <c r="S32" s="33">
         <v>7.4200000000000002E-2</v>
       </c>
-      <c r="T32" s="42" t="s">
+      <c r="T32" s="38" t="s">
         <v>316</v>
       </c>
-      <c r="U32" s="37">
+      <c r="U32" s="33">
         <v>6.9099999999999995E-2</v>
       </c>
     </row>
     <row r="33" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A33" s="25" t="s">
+      <c r="A33" s="22" t="s">
         <v>317</v>
       </c>
-      <c r="B33" s="26"/>
-      <c r="C33" s="28"/>
-      <c r="D33" s="26"/>
-      <c r="E33" s="28"/>
-      <c r="F33" s="26"/>
-      <c r="G33" s="28"/>
-      <c r="H33" s="26"/>
-      <c r="I33" s="28"/>
-      <c r="J33" s="26"/>
-      <c r="K33" s="28"/>
-      <c r="L33" s="26"/>
-      <c r="M33" s="28"/>
-      <c r="N33" s="26"/>
-      <c r="O33" s="28"/>
-      <c r="P33" s="26"/>
-      <c r="Q33" s="28"/>
-      <c r="R33" s="26"/>
-      <c r="S33" s="28"/>
-      <c r="T33" s="26"/>
-      <c r="U33" s="28"/>
+      <c r="B33" s="23"/>
+      <c r="C33" s="25"/>
+      <c r="D33" s="23"/>
+      <c r="E33" s="25"/>
+      <c r="F33" s="23"/>
+      <c r="G33" s="25"/>
+      <c r="H33" s="23"/>
+      <c r="I33" s="25"/>
+      <c r="J33" s="23"/>
+      <c r="K33" s="25"/>
+      <c r="L33" s="23"/>
+      <c r="M33" s="25"/>
+      <c r="N33" s="23"/>
+      <c r="O33" s="25"/>
+      <c r="P33" s="23"/>
+      <c r="Q33" s="25"/>
+      <c r="R33" s="23"/>
+      <c r="S33" s="25"/>
+      <c r="T33" s="23"/>
+      <c r="U33" s="25"/>
     </row>
     <row r="34" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A34" s="30" t="s">
+      <c r="A34" s="27" t="s">
         <v>318</v>
       </c>
-      <c r="B34" s="41" t="s">
+      <c r="B34" s="37" t="s">
         <v>207</v>
       </c>
-      <c r="C34" s="37">
+      <c r="C34" s="33">
         <v>0.62180000000000002</v>
       </c>
-      <c r="D34" s="41" t="s">
+      <c r="D34" s="37" t="s">
         <v>243</v>
       </c>
-      <c r="E34" s="37">
+      <c r="E34" s="33">
         <v>7.4200000000000002E-2</v>
       </c>
-      <c r="F34" s="41" t="s">
+      <c r="F34" s="37" t="s">
         <v>209</v>
       </c>
-      <c r="G34" s="37">
+      <c r="G34" s="33">
         <v>3.9600000000000003E-2</v>
       </c>
-      <c r="H34" s="41" t="s">
+      <c r="H34" s="37" t="s">
         <v>242</v>
       </c>
-      <c r="I34" s="37">
+      <c r="I34" s="33">
         <v>3.8600000000000002E-2</v>
       </c>
-      <c r="J34" s="41" t="s">
+      <c r="J34" s="37" t="s">
         <v>89</v>
       </c>
-      <c r="K34" s="37">
+      <c r="K34" s="33">
         <v>3.7600000000000001E-2</v>
       </c>
-      <c r="L34" s="41" t="s">
+      <c r="L34" s="37" t="s">
         <v>151</v>
       </c>
-      <c r="M34" s="37">
+      <c r="M34" s="33">
         <v>8.6400000000000005E-2</v>
       </c>
-      <c r="N34" s="41" t="s">
+      <c r="N34" s="37" t="s">
         <v>246</v>
       </c>
-      <c r="O34" s="37">
+      <c r="O34" s="33">
         <v>5.9799999999999999E-2</v>
       </c>
-      <c r="P34" s="41" t="s">
+      <c r="P34" s="37" t="s">
         <v>285</v>
       </c>
-      <c r="Q34" s="37">
+      <c r="Q34" s="33">
         <v>3.1699999999999999E-2</v>
       </c>
-      <c r="R34" s="41" t="s">
+      <c r="R34" s="37" t="s">
         <v>319</v>
       </c>
-      <c r="S34" s="37">
+      <c r="S34" s="33">
         <v>3.04E-2</v>
       </c>
-      <c r="T34" s="41" t="s">
+      <c r="T34" s="37" t="s">
         <v>320</v>
       </c>
-      <c r="U34" s="37">
+      <c r="U34" s="33">
         <v>2.7400000000000001E-2</v>
       </c>
     </row>
     <row r="35" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A35" s="30"/>
-      <c r="B35" s="41"/>
-      <c r="C35" s="37"/>
-      <c r="D35" s="41"/>
-      <c r="E35" s="37"/>
-      <c r="F35" s="41"/>
-      <c r="G35" s="37"/>
-      <c r="H35" s="41"/>
-      <c r="I35" s="37"/>
-      <c r="J35" s="41"/>
-      <c r="K35" s="37"/>
-      <c r="L35" s="41"/>
-      <c r="M35" s="37"/>
-      <c r="N35" s="41"/>
-      <c r="O35" s="37"/>
-      <c r="P35" s="41"/>
-      <c r="Q35" s="37"/>
-      <c r="R35" s="41"/>
-      <c r="S35" s="37"/>
-      <c r="T35" s="41"/>
-      <c r="U35" s="37"/>
+      <c r="A35" s="27"/>
+      <c r="B35" s="37"/>
+      <c r="C35" s="33"/>
+      <c r="D35" s="37"/>
+      <c r="E35" s="33"/>
+      <c r="F35" s="37"/>
+      <c r="G35" s="33"/>
+      <c r="H35" s="37"/>
+      <c r="I35" s="33"/>
+      <c r="J35" s="37"/>
+      <c r="K35" s="33"/>
+      <c r="L35" s="37"/>
+      <c r="M35" s="33"/>
+      <c r="N35" s="37"/>
+      <c r="O35" s="33"/>
+      <c r="P35" s="37"/>
+      <c r="Q35" s="33"/>
+      <c r="R35" s="37"/>
+      <c r="S35" s="33"/>
+      <c r="T35" s="37"/>
+      <c r="U35" s="33"/>
     </row>
     <row r="36" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A36" s="30"/>
-      <c r="B36" s="41"/>
-      <c r="C36" s="37"/>
-      <c r="D36" s="41"/>
-      <c r="E36" s="37"/>
-      <c r="F36" s="41"/>
-      <c r="G36" s="37"/>
-      <c r="H36" s="41"/>
-      <c r="I36" s="37"/>
-      <c r="J36" s="41"/>
-      <c r="K36" s="37"/>
-      <c r="L36" s="41"/>
-      <c r="M36" s="37"/>
-      <c r="N36" s="41"/>
-      <c r="O36" s="37"/>
-      <c r="P36" s="41"/>
-      <c r="Q36" s="37"/>
-      <c r="R36" s="41"/>
-      <c r="S36" s="37"/>
-      <c r="T36" s="41"/>
-      <c r="U36" s="37"/>
+      <c r="A36" s="27"/>
+      <c r="B36" s="37"/>
+      <c r="C36" s="33"/>
+      <c r="D36" s="37"/>
+      <c r="E36" s="33"/>
+      <c r="F36" s="37"/>
+      <c r="G36" s="33"/>
+      <c r="H36" s="37"/>
+      <c r="I36" s="33"/>
+      <c r="J36" s="37"/>
+      <c r="K36" s="33"/>
+      <c r="L36" s="37"/>
+      <c r="M36" s="33"/>
+      <c r="N36" s="37"/>
+      <c r="O36" s="33"/>
+      <c r="P36" s="37"/>
+      <c r="Q36" s="33"/>
+      <c r="R36" s="37"/>
+      <c r="S36" s="33"/>
+      <c r="T36" s="37"/>
+      <c r="U36" s="33"/>
     </row>
     <row r="37" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A37" s="30"/>
-      <c r="B37" s="41"/>
-      <c r="C37" s="37"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="37"/>
-      <c r="F37" s="41"/>
-      <c r="G37" s="37"/>
-      <c r="H37" s="41"/>
-      <c r="I37" s="37"/>
-      <c r="J37" s="41"/>
-      <c r="K37" s="37"/>
-      <c r="L37" s="41"/>
-      <c r="M37" s="37"/>
-      <c r="N37" s="41"/>
-      <c r="O37" s="37"/>
-      <c r="P37" s="41"/>
-      <c r="Q37" s="37"/>
-      <c r="R37" s="41"/>
-      <c r="S37" s="37"/>
-      <c r="T37" s="41"/>
-      <c r="U37" s="37"/>
+      <c r="A37" s="27"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="37"/>
+      <c r="E37" s="33"/>
+      <c r="F37" s="37"/>
+      <c r="G37" s="33"/>
+      <c r="H37" s="37"/>
+      <c r="I37" s="33"/>
+      <c r="J37" s="37"/>
+      <c r="K37" s="33"/>
+      <c r="L37" s="37"/>
+      <c r="M37" s="33"/>
+      <c r="N37" s="37"/>
+      <c r="O37" s="33"/>
+      <c r="P37" s="37"/>
+      <c r="Q37" s="33"/>
+      <c r="R37" s="37"/>
+      <c r="S37" s="33"/>
+      <c r="T37" s="37"/>
+      <c r="U37" s="33"/>
     </row>
     <row r="38" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A38" s="30"/>
-      <c r="B38" s="41"/>
-      <c r="C38" s="37"/>
-      <c r="D38" s="41"/>
-      <c r="E38" s="37"/>
-      <c r="F38" s="41"/>
-      <c r="G38" s="37"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="37"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="37"/>
-      <c r="L38" s="41"/>
-      <c r="M38" s="37"/>
-      <c r="N38" s="41"/>
-      <c r="O38" s="37"/>
-      <c r="P38" s="41"/>
-      <c r="Q38" s="37"/>
-      <c r="R38" s="41"/>
-      <c r="S38" s="37"/>
-      <c r="T38" s="41"/>
-      <c r="U38" s="37"/>
+      <c r="A38" s="27"/>
+      <c r="B38" s="37"/>
+      <c r="C38" s="33"/>
+      <c r="D38" s="37"/>
+      <c r="E38" s="33"/>
+      <c r="F38" s="37"/>
+      <c r="G38" s="33"/>
+      <c r="H38" s="37"/>
+      <c r="I38" s="33"/>
+      <c r="J38" s="37"/>
+      <c r="K38" s="33"/>
+      <c r="L38" s="37"/>
+      <c r="M38" s="33"/>
+      <c r="N38" s="37"/>
+      <c r="O38" s="33"/>
+      <c r="P38" s="37"/>
+      <c r="Q38" s="33"/>
+      <c r="R38" s="37"/>
+      <c r="S38" s="33"/>
+      <c r="T38" s="37"/>
+      <c r="U38" s="33"/>
     </row>
     <row r="39" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A39" s="30"/>
-      <c r="B39" s="41"/>
-      <c r="C39" s="37"/>
-      <c r="D39" s="41"/>
-      <c r="E39" s="37"/>
-      <c r="F39" s="41"/>
-      <c r="G39" s="37"/>
-      <c r="H39" s="41"/>
-      <c r="I39" s="37"/>
-      <c r="J39" s="41"/>
-      <c r="K39" s="37"/>
-      <c r="L39" s="41"/>
-      <c r="M39" s="37"/>
-      <c r="N39" s="41"/>
-      <c r="O39" s="37"/>
-      <c r="P39" s="41"/>
-      <c r="Q39" s="37"/>
-      <c r="R39" s="41"/>
-      <c r="S39" s="37"/>
-      <c r="T39" s="41"/>
-      <c r="U39" s="37"/>
+      <c r="A39" s="27"/>
+      <c r="B39" s="37"/>
+      <c r="C39" s="33"/>
+      <c r="D39" s="37"/>
+      <c r="E39" s="33"/>
+      <c r="F39" s="37"/>
+      <c r="G39" s="33"/>
+      <c r="H39" s="37"/>
+      <c r="I39" s="33"/>
+      <c r="J39" s="37"/>
+      <c r="K39" s="33"/>
+      <c r="L39" s="37"/>
+      <c r="M39" s="33"/>
+      <c r="N39" s="37"/>
+      <c r="O39" s="33"/>
+      <c r="P39" s="37"/>
+      <c r="Q39" s="33"/>
+      <c r="R39" s="37"/>
+      <c r="S39" s="33"/>
+      <c r="T39" s="37"/>
+      <c r="U39" s="33"/>
     </row>
     <row r="40" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A40" s="30"/>
-      <c r="B40" s="41"/>
-      <c r="C40" s="37"/>
-      <c r="D40" s="41"/>
-      <c r="E40" s="37"/>
-      <c r="F40" s="41"/>
-      <c r="G40" s="37"/>
-      <c r="H40" s="41"/>
-      <c r="I40" s="37"/>
-      <c r="J40" s="41"/>
-      <c r="K40" s="37"/>
-      <c r="L40" s="41"/>
-      <c r="M40" s="37"/>
-      <c r="N40" s="41"/>
-      <c r="O40" s="37"/>
-      <c r="P40" s="41"/>
-      <c r="Q40" s="37"/>
-      <c r="R40" s="41"/>
-      <c r="S40" s="37"/>
-      <c r="T40" s="41"/>
-      <c r="U40" s="37"/>
+      <c r="A40" s="27"/>
+      <c r="B40" s="37"/>
+      <c r="C40" s="33"/>
+      <c r="D40" s="37"/>
+      <c r="E40" s="33"/>
+      <c r="F40" s="37"/>
+      <c r="G40" s="33"/>
+      <c r="H40" s="37"/>
+      <c r="I40" s="33"/>
+      <c r="J40" s="37"/>
+      <c r="K40" s="33"/>
+      <c r="L40" s="37"/>
+      <c r="M40" s="33"/>
+      <c r="N40" s="37"/>
+      <c r="O40" s="33"/>
+      <c r="P40" s="37"/>
+      <c r="Q40" s="33"/>
+      <c r="R40" s="37"/>
+      <c r="S40" s="33"/>
+      <c r="T40" s="37"/>
+      <c r="U40" s="33"/>
     </row>
     <row r="41" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A41" s="30"/>
-      <c r="B41" s="41"/>
-      <c r="C41" s="37"/>
-      <c r="D41" s="41"/>
-      <c r="E41" s="37"/>
-      <c r="F41" s="41"/>
-      <c r="G41" s="37"/>
-      <c r="H41" s="41"/>
-      <c r="I41" s="37"/>
-      <c r="J41" s="41"/>
-      <c r="K41" s="37"/>
-      <c r="L41" s="41"/>
-      <c r="M41" s="37"/>
-      <c r="N41" s="41"/>
-      <c r="O41" s="37"/>
-      <c r="P41" s="41"/>
-      <c r="Q41" s="37"/>
-      <c r="R41" s="41"/>
-      <c r="S41" s="37"/>
-      <c r="T41" s="41"/>
-      <c r="U41" s="37"/>
+      <c r="A41" s="27"/>
+      <c r="B41" s="37"/>
+      <c r="C41" s="33"/>
+      <c r="D41" s="37"/>
+      <c r="E41" s="33"/>
+      <c r="F41" s="37"/>
+      <c r="G41" s="33"/>
+      <c r="H41" s="37"/>
+      <c r="I41" s="33"/>
+      <c r="J41" s="37"/>
+      <c r="K41" s="33"/>
+      <c r="L41" s="37"/>
+      <c r="M41" s="33"/>
+      <c r="N41" s="37"/>
+      <c r="O41" s="33"/>
+      <c r="P41" s="37"/>
+      <c r="Q41" s="33"/>
+      <c r="R41" s="37"/>
+      <c r="S41" s="33"/>
+      <c r="T41" s="37"/>
+      <c r="U41" s="33"/>
     </row>
     <row r="42" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A42" s="30"/>
-      <c r="B42" s="41"/>
-      <c r="C42" s="37"/>
-      <c r="D42" s="41"/>
-      <c r="E42" s="37"/>
-      <c r="F42" s="41"/>
-      <c r="G42" s="37"/>
-      <c r="H42" s="41"/>
-      <c r="I42" s="37"/>
-      <c r="J42" s="41"/>
-      <c r="K42" s="37"/>
-      <c r="L42" s="41"/>
-      <c r="M42" s="37"/>
-      <c r="N42" s="41"/>
-      <c r="O42" s="37"/>
-      <c r="P42" s="41"/>
-      <c r="Q42" s="37"/>
-      <c r="R42" s="41"/>
-      <c r="S42" s="37"/>
-      <c r="T42" s="41"/>
-      <c r="U42" s="37"/>
+      <c r="A42" s="27"/>
+      <c r="B42" s="37"/>
+      <c r="C42" s="33"/>
+      <c r="D42" s="37"/>
+      <c r="E42" s="33"/>
+      <c r="F42" s="37"/>
+      <c r="G42" s="33"/>
+      <c r="H42" s="37"/>
+      <c r="I42" s="33"/>
+      <c r="J42" s="37"/>
+      <c r="K42" s="33"/>
+      <c r="L42" s="37"/>
+      <c r="M42" s="33"/>
+      <c r="N42" s="37"/>
+      <c r="O42" s="33"/>
+      <c r="P42" s="37"/>
+      <c r="Q42" s="33"/>
+      <c r="R42" s="37"/>
+      <c r="S42" s="33"/>
+      <c r="T42" s="37"/>
+      <c r="U42" s="33"/>
     </row>
     <row r="43" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A43" s="30"/>
-      <c r="B43" s="41"/>
-      <c r="C43" s="37"/>
-      <c r="D43" s="41"/>
-      <c r="E43" s="37"/>
-      <c r="F43" s="41"/>
-      <c r="G43" s="37"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="37"/>
-      <c r="J43" s="41"/>
-      <c r="K43" s="37"/>
-      <c r="L43" s="41"/>
-      <c r="M43" s="37"/>
-      <c r="N43" s="41"/>
-      <c r="O43" s="37"/>
-      <c r="P43" s="41"/>
-      <c r="Q43" s="37"/>
-      <c r="R43" s="41"/>
-      <c r="S43" s="37"/>
-      <c r="T43" s="41"/>
-      <c r="U43" s="37"/>
+      <c r="A43" s="27"/>
+      <c r="B43" s="37"/>
+      <c r="C43" s="33"/>
+      <c r="D43" s="37"/>
+      <c r="E43" s="33"/>
+      <c r="F43" s="37"/>
+      <c r="G43" s="33"/>
+      <c r="H43" s="37"/>
+      <c r="I43" s="33"/>
+      <c r="J43" s="37"/>
+      <c r="K43" s="33"/>
+      <c r="L43" s="37"/>
+      <c r="M43" s="33"/>
+      <c r="N43" s="37"/>
+      <c r="O43" s="33"/>
+      <c r="P43" s="37"/>
+      <c r="Q43" s="33"/>
+      <c r="R43" s="37"/>
+      <c r="S43" s="33"/>
+      <c r="T43" s="37"/>
+      <c r="U43" s="33"/>
     </row>
     <row r="44" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A44" s="30"/>
-      <c r="B44" s="41"/>
-      <c r="C44" s="37"/>
-      <c r="D44" s="41"/>
-      <c r="E44" s="37"/>
-      <c r="F44" s="41"/>
-      <c r="G44" s="37"/>
-      <c r="H44" s="41"/>
-      <c r="I44" s="37"/>
-      <c r="J44" s="41"/>
-      <c r="K44" s="37"/>
-      <c r="L44" s="41"/>
-      <c r="M44" s="37"/>
-      <c r="N44" s="41"/>
-      <c r="O44" s="37"/>
-      <c r="P44" s="41"/>
-      <c r="Q44" s="37"/>
-      <c r="R44" s="41"/>
-      <c r="S44" s="37"/>
-      <c r="T44" s="41"/>
-      <c r="U44" s="37"/>
+      <c r="A44" s="27"/>
+      <c r="B44" s="37"/>
+      <c r="C44" s="33"/>
+      <c r="D44" s="37"/>
+      <c r="E44" s="33"/>
+      <c r="F44" s="37"/>
+      <c r="G44" s="33"/>
+      <c r="H44" s="37"/>
+      <c r="I44" s="33"/>
+      <c r="J44" s="37"/>
+      <c r="K44" s="33"/>
+      <c r="L44" s="37"/>
+      <c r="M44" s="33"/>
+      <c r="N44" s="37"/>
+      <c r="O44" s="33"/>
+      <c r="P44" s="37"/>
+      <c r="Q44" s="33"/>
+      <c r="R44" s="37"/>
+      <c r="S44" s="33"/>
+      <c r="T44" s="37"/>
+      <c r="U44" s="33"/>
     </row>
     <row r="45" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A45" s="30"/>
-      <c r="B45" s="41"/>
-      <c r="C45" s="37"/>
-      <c r="D45" s="41"/>
-      <c r="E45" s="37"/>
-      <c r="F45" s="41"/>
-      <c r="G45" s="37"/>
-      <c r="H45" s="41"/>
-      <c r="I45" s="37"/>
-      <c r="J45" s="41"/>
-      <c r="K45" s="37"/>
-      <c r="L45" s="41"/>
-      <c r="M45" s="37"/>
-      <c r="N45" s="41"/>
-      <c r="O45" s="37"/>
-      <c r="P45" s="41"/>
-      <c r="Q45" s="37"/>
-      <c r="R45" s="41"/>
-      <c r="S45" s="37"/>
-      <c r="T45" s="41"/>
-      <c r="U45" s="37"/>
+      <c r="A45" s="27"/>
+      <c r="B45" s="37"/>
+      <c r="C45" s="33"/>
+      <c r="D45" s="37"/>
+      <c r="E45" s="33"/>
+      <c r="F45" s="37"/>
+      <c r="G45" s="33"/>
+      <c r="H45" s="37"/>
+      <c r="I45" s="33"/>
+      <c r="J45" s="37"/>
+      <c r="K45" s="33"/>
+      <c r="L45" s="37"/>
+      <c r="M45" s="33"/>
+      <c r="N45" s="37"/>
+      <c r="O45" s="33"/>
+      <c r="P45" s="37"/>
+      <c r="Q45" s="33"/>
+      <c r="R45" s="37"/>
+      <c r="S45" s="33"/>
+      <c r="T45" s="37"/>
+      <c r="U45" s="33"/>
     </row>
     <row r="46" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A46" s="30"/>
-      <c r="B46" s="41"/>
-      <c r="C46" s="37"/>
-      <c r="D46" s="41"/>
-      <c r="E46" s="37"/>
-      <c r="F46" s="41"/>
-      <c r="G46" s="37"/>
-      <c r="H46" s="41"/>
-      <c r="I46" s="37"/>
-      <c r="J46" s="41"/>
-      <c r="K46" s="37"/>
-      <c r="L46" s="41"/>
-      <c r="M46" s="37"/>
-      <c r="N46" s="41"/>
-      <c r="O46" s="37"/>
-      <c r="P46" s="41"/>
-      <c r="Q46" s="37"/>
-      <c r="R46" s="41"/>
-      <c r="S46" s="37"/>
-      <c r="T46" s="41"/>
-      <c r="U46" s="37"/>
+      <c r="A46" s="27"/>
+      <c r="B46" s="37"/>
+      <c r="C46" s="33"/>
+      <c r="D46" s="37"/>
+      <c r="E46" s="33"/>
+      <c r="F46" s="37"/>
+      <c r="G46" s="33"/>
+      <c r="H46" s="37"/>
+      <c r="I46" s="33"/>
+      <c r="J46" s="37"/>
+      <c r="K46" s="33"/>
+      <c r="L46" s="37"/>
+      <c r="M46" s="33"/>
+      <c r="N46" s="37"/>
+      <c r="O46" s="33"/>
+      <c r="P46" s="37"/>
+      <c r="Q46" s="33"/>
+      <c r="R46" s="37"/>
+      <c r="S46" s="33"/>
+      <c r="T46" s="37"/>
+      <c r="U46" s="33"/>
     </row>
     <row r="47" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A47" s="30"/>
-      <c r="B47" s="41"/>
-      <c r="C47" s="37"/>
-      <c r="D47" s="41"/>
-      <c r="E47" s="37"/>
-      <c r="F47" s="41"/>
-      <c r="G47" s="37"/>
-      <c r="H47" s="41"/>
-      <c r="I47" s="37"/>
-      <c r="J47" s="41"/>
-      <c r="K47" s="37"/>
-      <c r="L47" s="41"/>
-      <c r="M47" s="37"/>
-      <c r="N47" s="41"/>
-      <c r="O47" s="37"/>
-      <c r="P47" s="41"/>
-      <c r="Q47" s="37"/>
-      <c r="R47" s="41"/>
-      <c r="S47" s="37"/>
-      <c r="T47" s="41"/>
-      <c r="U47" s="37"/>
+      <c r="A47" s="27"/>
+      <c r="B47" s="37"/>
+      <c r="C47" s="33"/>
+      <c r="D47" s="37"/>
+      <c r="E47" s="33"/>
+      <c r="F47" s="37"/>
+      <c r="G47" s="33"/>
+      <c r="H47" s="37"/>
+      <c r="I47" s="33"/>
+      <c r="J47" s="37"/>
+      <c r="K47" s="33"/>
+      <c r="L47" s="37"/>
+      <c r="M47" s="33"/>
+      <c r="N47" s="37"/>
+      <c r="O47" s="33"/>
+      <c r="P47" s="37"/>
+      <c r="Q47" s="33"/>
+      <c r="R47" s="37"/>
+      <c r="S47" s="33"/>
+      <c r="T47" s="37"/>
+      <c r="U47" s="33"/>
     </row>
     <row r="48" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A48" s="30"/>
-      <c r="B48" s="41"/>
-      <c r="C48" s="37"/>
-      <c r="D48" s="41"/>
-      <c r="E48" s="37"/>
-      <c r="F48" s="41"/>
-      <c r="G48" s="37"/>
-      <c r="H48" s="41"/>
-      <c r="I48" s="37"/>
-      <c r="J48" s="41"/>
-      <c r="K48" s="37"/>
-      <c r="L48" s="41"/>
-      <c r="M48" s="37"/>
-      <c r="N48" s="41"/>
-      <c r="O48" s="37"/>
-      <c r="P48" s="41"/>
-      <c r="Q48" s="37"/>
-      <c r="R48" s="41"/>
-      <c r="S48" s="37"/>
-      <c r="T48" s="41"/>
-      <c r="U48" s="37"/>
+      <c r="A48" s="27"/>
+      <c r="B48" s="37"/>
+      <c r="C48" s="33"/>
+      <c r="D48" s="37"/>
+      <c r="E48" s="33"/>
+      <c r="F48" s="37"/>
+      <c r="G48" s="33"/>
+      <c r="H48" s="37"/>
+      <c r="I48" s="33"/>
+      <c r="J48" s="37"/>
+      <c r="K48" s="33"/>
+      <c r="L48" s="37"/>
+      <c r="M48" s="33"/>
+      <c r="N48" s="37"/>
+      <c r="O48" s="33"/>
+      <c r="P48" s="37"/>
+      <c r="Q48" s="33"/>
+      <c r="R48" s="37"/>
+      <c r="S48" s="33"/>
+      <c r="T48" s="37"/>
+      <c r="U48" s="33"/>
     </row>
     <row r="49" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A49" s="30"/>
-      <c r="B49" s="41"/>
-      <c r="C49" s="37"/>
-      <c r="D49" s="41"/>
-      <c r="E49" s="37"/>
-      <c r="F49" s="41"/>
-      <c r="G49" s="37"/>
-      <c r="H49" s="41"/>
-      <c r="I49" s="37"/>
-      <c r="J49" s="41"/>
-      <c r="K49" s="37"/>
-      <c r="L49" s="41"/>
-      <c r="M49" s="37"/>
-      <c r="N49" s="41"/>
-      <c r="O49" s="37"/>
-      <c r="P49" s="41"/>
-      <c r="Q49" s="37"/>
-      <c r="R49" s="41"/>
-      <c r="S49" s="37"/>
-      <c r="T49" s="41"/>
-      <c r="U49" s="37"/>
+      <c r="A49" s="27"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="37"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="37"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="37"/>
+      <c r="I49" s="33"/>
+      <c r="J49" s="37"/>
+      <c r="K49" s="33"/>
+      <c r="L49" s="37"/>
+      <c r="M49" s="33"/>
+      <c r="N49" s="37"/>
+      <c r="O49" s="33"/>
+      <c r="P49" s="37"/>
+      <c r="Q49" s="33"/>
+      <c r="R49" s="37"/>
+      <c r="S49" s="33"/>
+      <c r="T49" s="37"/>
+      <c r="U49" s="33"/>
     </row>
     <row r="50" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A50" s="30"/>
-      <c r="B50" s="41"/>
-      <c r="C50" s="37"/>
-      <c r="D50" s="41"/>
-      <c r="E50" s="37"/>
-      <c r="F50" s="41"/>
-      <c r="G50" s="37"/>
-      <c r="H50" s="41"/>
-      <c r="I50" s="37"/>
-      <c r="J50" s="41"/>
-      <c r="K50" s="37"/>
-      <c r="L50" s="41"/>
-      <c r="M50" s="37"/>
-      <c r="N50" s="41"/>
-      <c r="O50" s="37"/>
-      <c r="P50" s="41"/>
-      <c r="Q50" s="37"/>
-      <c r="R50" s="41"/>
-      <c r="S50" s="37"/>
-      <c r="T50" s="41"/>
-      <c r="U50" s="37"/>
+      <c r="A50" s="27"/>
+      <c r="B50" s="37"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="37"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="37"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="37"/>
+      <c r="I50" s="33"/>
+      <c r="J50" s="37"/>
+      <c r="K50" s="33"/>
+      <c r="L50" s="37"/>
+      <c r="M50" s="33"/>
+      <c r="N50" s="37"/>
+      <c r="O50" s="33"/>
+      <c r="P50" s="37"/>
+      <c r="Q50" s="33"/>
+      <c r="R50" s="37"/>
+      <c r="S50" s="33"/>
+      <c r="T50" s="37"/>
+      <c r="U50" s="33"/>
     </row>
     <row r="51" spans="1:21" ht="15.75" customHeight="1">
-      <c r="A51" s="30"/>
-      <c r="B51" s="41"/>
-      <c r="C51" s="37"/>
-      <c r="D51" s="41"/>
-      <c r="E51" s="37"/>
-      <c r="F51" s="41"/>
-      <c r="G51" s="37"/>
-      <c r="H51" s="41"/>
-      <c r="I51" s="37"/>
-      <c r="J51" s="41"/>
-      <c r="K51" s="37"/>
-      <c r="L51" s="41"/>
-      <c r="M51" s="37"/>
-      <c r="N51" s="41"/>
-      <c r="O51" s="37"/>
-      <c r="P51" s="41"/>
-      <c r="Q51" s="37"/>
-      <c r="R51" s="41"/>
-      <c r="S51" s="37"/>
-      <c r="T51" s="41"/>
-      <c r="U51" s="37"/>
-    </row>
-    <row r="52" spans="1:21" ht="13">
-      <c r="A52" s="30"/>
-      <c r="B52" s="41"/>
-      <c r="C52" s="37"/>
-      <c r="D52" s="41"/>
-      <c r="E52" s="37"/>
-      <c r="F52" s="41"/>
-      <c r="G52" s="37"/>
-      <c r="H52" s="41"/>
-      <c r="I52" s="37"/>
-      <c r="J52" s="41"/>
-      <c r="K52" s="37"/>
-      <c r="L52" s="41"/>
-      <c r="M52" s="37"/>
-      <c r="N52" s="41"/>
-      <c r="O52" s="37"/>
-      <c r="P52" s="41"/>
-      <c r="Q52" s="37"/>
-      <c r="R52" s="41"/>
-      <c r="S52" s="37"/>
-      <c r="T52" s="41"/>
-      <c r="U52" s="37"/>
-    </row>
-    <row r="53" spans="1:21" ht="13">
-      <c r="A53" s="30"/>
-      <c r="B53" s="41"/>
-      <c r="C53" s="37"/>
-      <c r="D53" s="41"/>
-      <c r="E53" s="37"/>
-      <c r="F53" s="41"/>
-      <c r="G53" s="37"/>
-      <c r="H53" s="41"/>
-      <c r="I53" s="37"/>
-      <c r="J53" s="41"/>
-      <c r="K53" s="37"/>
-      <c r="L53" s="41"/>
-      <c r="M53" s="37"/>
-      <c r="N53" s="41"/>
-      <c r="O53" s="37"/>
-      <c r="P53" s="41"/>
-      <c r="Q53" s="37"/>
-      <c r="R53" s="41"/>
-      <c r="S53" s="37"/>
-      <c r="T53" s="41"/>
-      <c r="U53" s="37"/>
-    </row>
-    <row r="54" spans="1:21" ht="13">
-      <c r="A54" s="30"/>
-      <c r="B54" s="41"/>
-      <c r="C54" s="37"/>
-      <c r="D54" s="41"/>
-      <c r="E54" s="37"/>
-      <c r="F54" s="41"/>
-      <c r="G54" s="37"/>
-      <c r="H54" s="41"/>
-      <c r="I54" s="37"/>
-      <c r="J54" s="41"/>
-      <c r="K54" s="37"/>
-      <c r="L54" s="41"/>
-      <c r="M54" s="37"/>
-      <c r="N54" s="41"/>
-      <c r="O54" s="37"/>
-      <c r="P54" s="41"/>
-      <c r="Q54" s="37"/>
-      <c r="R54" s="41"/>
-      <c r="S54" s="37"/>
-      <c r="T54" s="41"/>
-      <c r="U54" s="37"/>
-    </row>
-    <row r="55" spans="1:21" ht="13">
-      <c r="A55" s="30"/>
-      <c r="B55" s="41"/>
-      <c r="C55" s="37"/>
-      <c r="D55" s="41"/>
-      <c r="E55" s="37"/>
-      <c r="F55" s="41"/>
-      <c r="G55" s="37"/>
-      <c r="H55" s="41"/>
-      <c r="I55" s="37"/>
-      <c r="J55" s="41"/>
-      <c r="K55" s="37"/>
-      <c r="L55" s="41"/>
-      <c r="M55" s="37"/>
-      <c r="N55" s="41"/>
-      <c r="O55" s="37"/>
-      <c r="P55" s="41"/>
-      <c r="Q55" s="37"/>
-      <c r="R55" s="41"/>
-      <c r="S55" s="37"/>
-      <c r="T55" s="41"/>
-      <c r="U55" s="37"/>
-    </row>
-    <row r="56" spans="1:21" ht="13">
-      <c r="A56" s="30"/>
-      <c r="B56" s="41"/>
-      <c r="C56" s="37"/>
-      <c r="D56" s="41"/>
-      <c r="E56" s="37"/>
-      <c r="F56" s="41"/>
-      <c r="G56" s="37"/>
-      <c r="H56" s="41"/>
-      <c r="I56" s="37"/>
-      <c r="J56" s="41"/>
-      <c r="K56" s="37"/>
-      <c r="L56" s="41"/>
-      <c r="M56" s="37"/>
-      <c r="N56" s="41"/>
-      <c r="O56" s="37"/>
-      <c r="P56" s="41"/>
-      <c r="Q56" s="37"/>
-      <c r="R56" s="41"/>
-      <c r="S56" s="37"/>
-      <c r="T56" s="41"/>
-      <c r="U56" s="37"/>
-    </row>
-    <row r="57" spans="1:21" ht="13">
-      <c r="A57" s="30"/>
-      <c r="B57" s="41"/>
-      <c r="C57" s="37"/>
-      <c r="D57" s="41"/>
-      <c r="E57" s="37"/>
-      <c r="F57" s="41"/>
-      <c r="G57" s="37"/>
-      <c r="H57" s="41"/>
-      <c r="I57" s="37"/>
-      <c r="J57" s="41"/>
-      <c r="K57" s="37"/>
-      <c r="L57" s="41"/>
-      <c r="M57" s="37"/>
-      <c r="N57" s="41"/>
-      <c r="O57" s="37"/>
-      <c r="P57" s="41"/>
-      <c r="Q57" s="37"/>
-      <c r="R57" s="41"/>
-      <c r="S57" s="37"/>
-      <c r="T57" s="41"/>
-      <c r="U57" s="37"/>
-    </row>
-    <row r="58" spans="1:21" ht="13">
-      <c r="A58" s="30"/>
-      <c r="B58" s="41"/>
-      <c r="C58" s="37"/>
-      <c r="D58" s="41"/>
-      <c r="E58" s="37"/>
-      <c r="F58" s="41"/>
-      <c r="G58" s="37"/>
-      <c r="H58" s="41"/>
-      <c r="I58" s="37"/>
-      <c r="J58" s="41"/>
-      <c r="K58" s="37"/>
-      <c r="L58" s="41"/>
-      <c r="M58" s="37"/>
-      <c r="N58" s="41"/>
-      <c r="O58" s="37"/>
-      <c r="P58" s="41"/>
-      <c r="Q58" s="37"/>
-      <c r="R58" s="41"/>
-      <c r="S58" s="37"/>
-      <c r="T58" s="41"/>
-      <c r="U58" s="37"/>
-    </row>
-    <row r="59" spans="1:21" ht="13">
-      <c r="A59" s="30"/>
-      <c r="B59" s="41"/>
-      <c r="C59" s="37"/>
-      <c r="D59" s="41"/>
-      <c r="E59" s="37"/>
-      <c r="F59" s="41"/>
-      <c r="G59" s="37"/>
-      <c r="H59" s="41"/>
-      <c r="I59" s="37"/>
-      <c r="J59" s="41"/>
-      <c r="K59" s="37"/>
-      <c r="L59" s="41"/>
-      <c r="M59" s="37"/>
-      <c r="N59" s="41"/>
-      <c r="O59" s="37"/>
-      <c r="P59" s="41"/>
-      <c r="Q59" s="37"/>
-      <c r="R59" s="41"/>
-      <c r="S59" s="37"/>
-      <c r="T59" s="41"/>
-      <c r="U59" s="37"/>
-    </row>
-    <row r="60" spans="1:21" ht="13">
-      <c r="A60" s="30"/>
-      <c r="B60" s="41"/>
-      <c r="C60" s="37"/>
-      <c r="D60" s="41"/>
-      <c r="E60" s="37"/>
-      <c r="F60" s="41"/>
-      <c r="G60" s="37"/>
-      <c r="H60" s="41"/>
-      <c r="I60" s="37"/>
-      <c r="J60" s="41"/>
-      <c r="K60" s="37"/>
-      <c r="L60" s="41"/>
-      <c r="M60" s="37"/>
-      <c r="N60" s="41"/>
-      <c r="O60" s="37"/>
-      <c r="P60" s="41"/>
-      <c r="Q60" s="37"/>
-      <c r="R60" s="41"/>
-      <c r="S60" s="37"/>
-      <c r="T60" s="41"/>
-      <c r="U60" s="37"/>
-    </row>
-    <row r="61" spans="1:21" ht="13">
-      <c r="A61" s="30"/>
-      <c r="B61" s="41"/>
-      <c r="C61" s="37"/>
-      <c r="D61" s="41"/>
-      <c r="E61" s="37"/>
-      <c r="F61" s="41"/>
-      <c r="G61" s="37"/>
-      <c r="H61" s="41"/>
-      <c r="I61" s="37"/>
-      <c r="J61" s="41"/>
-      <c r="K61" s="37"/>
-      <c r="L61" s="41"/>
-      <c r="M61" s="37"/>
-      <c r="N61" s="41"/>
-      <c r="O61" s="37"/>
-      <c r="P61" s="41"/>
-      <c r="Q61" s="37"/>
-      <c r="R61" s="41"/>
-      <c r="S61" s="37"/>
-      <c r="T61" s="41"/>
-      <c r="U61" s="37"/>
-    </row>
-    <row r="62" spans="1:21" ht="13">
-      <c r="A62" s="30"/>
-      <c r="B62" s="41"/>
-      <c r="C62" s="37"/>
-      <c r="D62" s="41"/>
-      <c r="E62" s="37"/>
-      <c r="F62" s="41"/>
-      <c r="G62" s="37"/>
-      <c r="H62" s="41"/>
-      <c r="I62" s="37"/>
-      <c r="J62" s="41"/>
-      <c r="K62" s="37"/>
-      <c r="L62" s="41"/>
-      <c r="M62" s="37"/>
-      <c r="N62" s="41"/>
-      <c r="O62" s="37"/>
-      <c r="P62" s="41"/>
-      <c r="Q62" s="37"/>
-      <c r="R62" s="41"/>
-      <c r="S62" s="37"/>
-      <c r="T62" s="41"/>
-      <c r="U62" s="37"/>
-    </row>
-    <row r="63" spans="1:21" ht="13">
-      <c r="A63" s="30"/>
-      <c r="B63" s="41"/>
-      <c r="C63" s="37"/>
-      <c r="D63" s="41"/>
-      <c r="E63" s="37"/>
-      <c r="F63" s="41"/>
-      <c r="G63" s="37"/>
-      <c r="H63" s="41"/>
-      <c r="I63" s="37"/>
-      <c r="J63" s="41"/>
-      <c r="K63" s="37"/>
-      <c r="L63" s="41"/>
-      <c r="M63" s="37"/>
-      <c r="N63" s="41"/>
-      <c r="O63" s="37"/>
-      <c r="P63" s="41"/>
-      <c r="Q63" s="37"/>
-      <c r="R63" s="41"/>
-      <c r="S63" s="37"/>
-      <c r="T63" s="41"/>
-      <c r="U63" s="37"/>
-    </row>
-    <row r="64" spans="1:21" ht="13">
-      <c r="A64" s="30"/>
-      <c r="B64" s="41"/>
-      <c r="C64" s="37"/>
-      <c r="D64" s="41"/>
-      <c r="E64" s="37"/>
-      <c r="F64" s="41"/>
-      <c r="G64" s="37"/>
-      <c r="H64" s="41"/>
-      <c r="I64" s="37"/>
-      <c r="J64" s="41"/>
-      <c r="K64" s="37"/>
-      <c r="L64" s="41"/>
-      <c r="M64" s="37"/>
-      <c r="N64" s="41"/>
-      <c r="O64" s="37"/>
-      <c r="P64" s="41"/>
-      <c r="Q64" s="37"/>
-      <c r="R64" s="41"/>
-      <c r="S64" s="37"/>
-      <c r="T64" s="41"/>
-      <c r="U64" s="37"/>
-    </row>
-    <row r="65" spans="1:21" ht="13">
-      <c r="A65" s="30"/>
-      <c r="B65" s="41"/>
-      <c r="C65" s="37"/>
-      <c r="D65" s="41"/>
-      <c r="E65" s="37"/>
-      <c r="F65" s="41"/>
-      <c r="G65" s="37"/>
-      <c r="H65" s="41"/>
-      <c r="I65" s="37"/>
-      <c r="J65" s="41"/>
-      <c r="K65" s="37"/>
-      <c r="L65" s="41"/>
-      <c r="M65" s="37"/>
-      <c r="N65" s="41"/>
-      <c r="O65" s="37"/>
-      <c r="P65" s="41"/>
-      <c r="Q65" s="37"/>
-      <c r="R65" s="41"/>
-      <c r="S65" s="37"/>
-      <c r="T65" s="41"/>
-      <c r="U65" s="37"/>
-    </row>
-    <row r="66" spans="1:21" ht="13">
-      <c r="A66" s="30"/>
-      <c r="B66" s="41"/>
-      <c r="C66" s="37"/>
-      <c r="D66" s="41"/>
-      <c r="E66" s="37"/>
-      <c r="F66" s="41"/>
-      <c r="G66" s="37"/>
-      <c r="H66" s="41"/>
-      <c r="I66" s="37"/>
-      <c r="J66" s="41"/>
-      <c r="K66" s="37"/>
-      <c r="L66" s="41"/>
-      <c r="M66" s="37"/>
-      <c r="N66" s="41"/>
-      <c r="O66" s="37"/>
-      <c r="P66" s="41"/>
-      <c r="Q66" s="37"/>
-      <c r="R66" s="41"/>
-      <c r="S66" s="37"/>
-      <c r="T66" s="41"/>
-      <c r="U66" s="37"/>
-    </row>
-    <row r="67" spans="1:21" ht="13">
-      <c r="A67" s="30"/>
-      <c r="B67" s="41"/>
-      <c r="C67" s="37"/>
-      <c r="D67" s="41"/>
-      <c r="E67" s="37"/>
-      <c r="F67" s="41"/>
-      <c r="G67" s="37"/>
-      <c r="H67" s="41"/>
-      <c r="I67" s="37"/>
-      <c r="J67" s="41"/>
-      <c r="K67" s="37"/>
-      <c r="L67" s="41"/>
-      <c r="M67" s="37"/>
-      <c r="N67" s="41"/>
-      <c r="O67" s="37"/>
-      <c r="P67" s="41"/>
-      <c r="Q67" s="37"/>
-      <c r="R67" s="41"/>
-      <c r="S67" s="37"/>
-      <c r="T67" s="41"/>
-      <c r="U67" s="37"/>
-    </row>
-    <row r="68" spans="1:21" ht="13">
-      <c r="A68" s="30"/>
-      <c r="B68" s="41"/>
-      <c r="C68" s="37"/>
-      <c r="D68" s="41"/>
-      <c r="E68" s="37"/>
-      <c r="F68" s="41"/>
-      <c r="G68" s="37"/>
-      <c r="H68" s="41"/>
-      <c r="I68" s="37"/>
-      <c r="J68" s="41"/>
-      <c r="K68" s="37"/>
-      <c r="L68" s="41"/>
-      <c r="M68" s="37"/>
-      <c r="N68" s="41"/>
-      <c r="O68" s="37"/>
-      <c r="P68" s="41"/>
-      <c r="Q68" s="37"/>
-      <c r="R68" s="41"/>
-      <c r="S68" s="37"/>
-      <c r="T68" s="41"/>
-      <c r="U68" s="37"/>
-    </row>
-    <row r="69" spans="1:21" ht="13">
-      <c r="A69" s="30"/>
-      <c r="B69" s="41"/>
-      <c r="C69" s="37"/>
-      <c r="D69" s="41"/>
-      <c r="E69" s="37"/>
-      <c r="F69" s="41"/>
-      <c r="G69" s="37"/>
-      <c r="H69" s="41"/>
-      <c r="I69" s="37"/>
-      <c r="J69" s="41"/>
-      <c r="K69" s="37"/>
-      <c r="L69" s="41"/>
-      <c r="M69" s="37"/>
-      <c r="N69" s="41"/>
-      <c r="O69" s="37"/>
-      <c r="P69" s="41"/>
-      <c r="Q69" s="37"/>
-      <c r="R69" s="41"/>
-      <c r="S69" s="37"/>
-      <c r="T69" s="41"/>
-      <c r="U69" s="37"/>
-    </row>
-    <row r="70" spans="1:21" ht="13">
-      <c r="A70" s="30"/>
-      <c r="B70" s="41"/>
-      <c r="C70" s="37"/>
-      <c r="D70" s="41"/>
-      <c r="E70" s="37"/>
-      <c r="F70" s="41"/>
-      <c r="G70" s="37"/>
-      <c r="H70" s="41"/>
-      <c r="I70" s="37"/>
-      <c r="J70" s="41"/>
-      <c r="K70" s="37"/>
-      <c r="L70" s="41"/>
-      <c r="M70" s="37"/>
-      <c r="N70" s="41"/>
-      <c r="O70" s="37"/>
-      <c r="P70" s="41"/>
-      <c r="Q70" s="37"/>
-      <c r="R70" s="41"/>
-      <c r="S70" s="37"/>
-      <c r="T70" s="41"/>
-      <c r="U70" s="37"/>
-    </row>
-    <row r="71" spans="1:21" ht="13">
-      <c r="A71" s="30"/>
-      <c r="B71" s="41"/>
-      <c r="C71" s="37"/>
-      <c r="D71" s="41"/>
-      <c r="E71" s="37"/>
-      <c r="F71" s="41"/>
-      <c r="G71" s="37"/>
-      <c r="H71" s="41"/>
-      <c r="I71" s="37"/>
-      <c r="J71" s="41"/>
-      <c r="K71" s="37"/>
-      <c r="L71" s="41"/>
-      <c r="M71" s="37"/>
-      <c r="N71" s="41"/>
-      <c r="O71" s="37"/>
-      <c r="P71" s="41"/>
-      <c r="Q71" s="37"/>
-      <c r="R71" s="41"/>
-      <c r="S71" s="37"/>
-      <c r="T71" s="41"/>
-      <c r="U71" s="37"/>
-    </row>
-    <row r="72" spans="1:21" ht="13">
-      <c r="A72" s="30"/>
-      <c r="B72" s="41"/>
-      <c r="C72" s="37"/>
-      <c r="D72" s="41"/>
-      <c r="E72" s="37"/>
-      <c r="F72" s="41"/>
-      <c r="G72" s="37"/>
-      <c r="H72" s="41"/>
-      <c r="I72" s="37"/>
-      <c r="J72" s="41"/>
-      <c r="K72" s="37"/>
-      <c r="L72" s="41"/>
-      <c r="M72" s="37"/>
-      <c r="N72" s="41"/>
-      <c r="O72" s="37"/>
-      <c r="P72" s="41"/>
-      <c r="Q72" s="37"/>
-      <c r="R72" s="41"/>
-      <c r="S72" s="37"/>
-      <c r="T72" s="41"/>
-      <c r="U72" s="37"/>
+      <c r="A51" s="27"/>
+      <c r="B51" s="37"/>
+      <c r="C51" s="33"/>
+      <c r="D51" s="37"/>
+      <c r="E51" s="33"/>
+      <c r="F51" s="37"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="37"/>
+      <c r="I51" s="33"/>
+      <c r="J51" s="37"/>
+      <c r="K51" s="33"/>
+      <c r="L51" s="37"/>
+      <c r="M51" s="33"/>
+      <c r="N51" s="37"/>
+      <c r="O51" s="33"/>
+      <c r="P51" s="37"/>
+      <c r="Q51" s="33"/>
+      <c r="R51" s="37"/>
+      <c r="S51" s="33"/>
+      <c r="T51" s="37"/>
+      <c r="U51" s="33"/>
+    </row>
+    <row r="52" spans="1:21" ht="12.5">
+      <c r="A52" s="27"/>
+      <c r="B52" s="37"/>
+      <c r="C52" s="33"/>
+      <c r="D52" s="37"/>
+      <c r="E52" s="33"/>
+      <c r="F52" s="37"/>
+      <c r="G52" s="33"/>
+      <c r="H52" s="37"/>
+      <c r="I52" s="33"/>
+      <c r="J52" s="37"/>
+      <c r="K52" s="33"/>
+      <c r="L52" s="37"/>
+      <c r="M52" s="33"/>
+      <c r="N52" s="37"/>
+      <c r="O52" s="33"/>
+      <c r="P52" s="37"/>
+      <c r="Q52" s="33"/>
+      <c r="R52" s="37"/>
+      <c r="S52" s="33"/>
+      <c r="T52" s="37"/>
+      <c r="U52" s="33"/>
+    </row>
+    <row r="53" spans="1:21" ht="12.5">
+      <c r="A53" s="27"/>
+      <c r="B53" s="37"/>
+      <c r="C53" s="33"/>
+      <c r="D53" s="37"/>
+      <c r="E53" s="33"/>
+      <c r="F53" s="37"/>
+      <c r="G53" s="33"/>
+      <c r="H53" s="37"/>
+      <c r="I53" s="33"/>
+      <c r="J53" s="37"/>
+      <c r="K53" s="33"/>
+      <c r="L53" s="37"/>
+      <c r="M53" s="33"/>
+      <c r="N53" s="37"/>
+      <c r="O53" s="33"/>
+      <c r="P53" s="37"/>
+      <c r="Q53" s="33"/>
+      <c r="R53" s="37"/>
+      <c r="S53" s="33"/>
+      <c r="T53" s="37"/>
+      <c r="U53" s="33"/>
+    </row>
+    <row r="54" spans="1:21" ht="12.5">
+      <c r="A54" s="27"/>
+      <c r="B54" s="37"/>
+      <c r="C54" s="33"/>
+      <c r="D54" s="37"/>
+      <c r="E54" s="33"/>
+      <c r="F54" s="37"/>
+      <c r="G54" s="33"/>
+      <c r="H54" s="37"/>
+      <c r="I54" s="33"/>
+      <c r="J54" s="37"/>
+      <c r="K54" s="33"/>
+      <c r="L54" s="37"/>
+      <c r="M54" s="33"/>
+      <c r="N54" s="37"/>
+      <c r="O54" s="33"/>
+      <c r="P54" s="37"/>
+      <c r="Q54" s="33"/>
+      <c r="R54" s="37"/>
+      <c r="S54" s="33"/>
+      <c r="T54" s="37"/>
+      <c r="U54" s="33"/>
+    </row>
+    <row r="55" spans="1:21" ht="12.5">
+      <c r="A55" s="27"/>
+      <c r="B55" s="37"/>
+      <c r="C55" s="33"/>
+      <c r="D55" s="37"/>
+      <c r="E55" s="33"/>
+      <c r="F55" s="37"/>
+      <c r="G55" s="33"/>
+      <c r="H55" s="37"/>
+      <c r="I55" s="33"/>
+      <c r="J55" s="37"/>
+      <c r="K55" s="33"/>
+      <c r="L55" s="37"/>
+      <c r="M55" s="33"/>
+      <c r="N55" s="37"/>
+      <c r="O55" s="33"/>
+      <c r="P55" s="37"/>
+      <c r="Q55" s="33"/>
+      <c r="R55" s="37"/>
+      <c r="S55" s="33"/>
+      <c r="T55" s="37"/>
+      <c r="U55" s="33"/>
+    </row>
+    <row r="56" spans="1:21" ht="12.5">
+      <c r="A56" s="27"/>
+      <c r="B56" s="37"/>
+      <c r="C56" s="33"/>
+      <c r="D56" s="37"/>
+      <c r="E56" s="33"/>
+      <c r="F56" s="37"/>
+      <c r="G56" s="33"/>
+      <c r="H56" s="37"/>
+      <c r="I56" s="33"/>
+      <c r="J56" s="37"/>
+      <c r="K56" s="33"/>
+      <c r="L56" s="37"/>
+      <c r="M56" s="33"/>
+      <c r="N56" s="37"/>
+      <c r="O56" s="33"/>
+      <c r="P56" s="37"/>
+      <c r="Q56" s="33"/>
+      <c r="R56" s="37"/>
+      <c r="S56" s="33"/>
+      <c r="T56" s="37"/>
+      <c r="U56" s="33"/>
+    </row>
+    <row r="57" spans="1:21" ht="12.5">
+      <c r="A57" s="27"/>
+      <c r="B57" s="37"/>
+      <c r="C57" s="33"/>
+      <c r="D57" s="37"/>
+      <c r="E57" s="33"/>
+      <c r="F57" s="37"/>
+      <c r="G57" s="33"/>
+      <c r="H57" s="37"/>
+      <c r="I57" s="33"/>
+      <c r="J57" s="37"/>
+      <c r="K57" s="33"/>
+      <c r="L57" s="37"/>
+      <c r="M57" s="33"/>
+      <c r="N57" s="37"/>
+      <c r="O57" s="33"/>
+      <c r="P57" s="37"/>
+      <c r="Q57" s="33"/>
+      <c r="R57" s="37"/>
+      <c r="S57" s="33"/>
+      <c r="T57" s="37"/>
+      <c r="U57" s="33"/>
+    </row>
+    <row r="58" spans="1:21" ht="12.5">
+      <c r="A58" s="27"/>
+      <c r="B58" s="37"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="37"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="37"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="37"/>
+      <c r="I58" s="33"/>
+      <c r="J58" s="37"/>
+      <c r="K58" s="33"/>
+      <c r="L58" s="37"/>
+      <c r="M58" s="33"/>
+      <c r="N58" s="37"/>
+      <c r="O58" s="33"/>
+      <c r="P58" s="37"/>
+      <c r="Q58" s="33"/>
+      <c r="R58" s="37"/>
+      <c r="S58" s="33"/>
+      <c r="T58" s="37"/>
+      <c r="U58" s="33"/>
+    </row>
+    <row r="59" spans="1:21" ht="12.5">
+      <c r="A59" s="27"/>
+      <c r="B59" s="37"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="37"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="37"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="37"/>
+      <c r="I59" s="33"/>
+      <c r="J59" s="37"/>
+      <c r="K59" s="33"/>
+      <c r="L59" s="37"/>
+      <c r="M59" s="33"/>
+      <c r="N59" s="37"/>
+      <c r="O59" s="33"/>
+      <c r="P59" s="37"/>
+      <c r="Q59" s="33"/>
+      <c r="R59" s="37"/>
+      <c r="S59" s="33"/>
+      <c r="T59" s="37"/>
+      <c r="U59" s="33"/>
+    </row>
+    <row r="60" spans="1:21" ht="12.5">
+      <c r="A60" s="27"/>
+      <c r="B60" s="37"/>
+      <c r="C60" s="33"/>
+      <c r="D60" s="37"/>
+      <c r="E60" s="33"/>
+      <c r="F60" s="37"/>
+      <c r="G60" s="33"/>
+      <c r="H60" s="37"/>
+      <c r="I60" s="33"/>
+      <c r="J60" s="37"/>
+      <c r="K60" s="33"/>
+      <c r="L60" s="37"/>
+      <c r="M60" s="33"/>
+      <c r="N60" s="37"/>
+      <c r="O60" s="33"/>
+      <c r="P60" s="37"/>
+      <c r="Q60" s="33"/>
+      <c r="R60" s="37"/>
+      <c r="S60" s="33"/>
+      <c r="T60" s="37"/>
+      <c r="U60" s="33"/>
+    </row>
+    <row r="61" spans="1:21" ht="12.5">
+      <c r="A61" s="27"/>
+      <c r="B61" s="37"/>
+      <c r="C61" s="33"/>
+      <c r="D61" s="37"/>
+      <c r="E61" s="33"/>
+      <c r="F61" s="37"/>
+      <c r="G61" s="33"/>
+      <c r="H61" s="37"/>
+      <c r="I61" s="33"/>
+      <c r="J61" s="37"/>
+      <c r="K61" s="33"/>
+      <c r="L61" s="37"/>
+      <c r="M61" s="33"/>
+      <c r="N61" s="37"/>
+      <c r="O61" s="33"/>
+      <c r="P61" s="37"/>
+      <c r="Q61" s="33"/>
+      <c r="R61" s="37"/>
+      <c r="S61" s="33"/>
+      <c r="T61" s="37"/>
+      <c r="U61" s="33"/>
+    </row>
+    <row r="62" spans="1:21" ht="12.5">
+      <c r="A62" s="27"/>
+      <c r="B62" s="37"/>
+      <c r="C62" s="33"/>
+      <c r="D62" s="37"/>
+      <c r="E62" s="33"/>
+      <c r="F62" s="37"/>
+      <c r="G62" s="33"/>
+      <c r="H62" s="37"/>
+      <c r="I62" s="33"/>
+      <c r="J62" s="37"/>
+      <c r="K62" s="33"/>
+      <c r="L62" s="37"/>
+      <c r="M62" s="33"/>
+      <c r="N62" s="37"/>
+      <c r="O62" s="33"/>
+      <c r="P62" s="37"/>
+      <c r="Q62" s="33"/>
+      <c r="R62" s="37"/>
+      <c r="S62" s="33"/>
+      <c r="T62" s="37"/>
+      <c r="U62" s="33"/>
+    </row>
+    <row r="63" spans="1:21" ht="12.5">
+      <c r="A63" s="27"/>
+      <c r="B63" s="37"/>
+      <c r="C63" s="33"/>
+      <c r="D63" s="37"/>
+      <c r="E63" s="33"/>
+      <c r="F63" s="37"/>
+      <c r="G63" s="33"/>
+      <c r="H63" s="37"/>
+      <c r="I63" s="33"/>
+      <c r="J63" s="37"/>
+      <c r="K63" s="33"/>
+      <c r="L63" s="37"/>
+      <c r="M63" s="33"/>
+      <c r="N63" s="37"/>
+      <c r="O63" s="33"/>
+      <c r="P63" s="37"/>
+      <c r="Q63" s="33"/>
+      <c r="R63" s="37"/>
+      <c r="S63" s="33"/>
+      <c r="T63" s="37"/>
+      <c r="U63" s="33"/>
+    </row>
+    <row r="64" spans="1:21" ht="12.5">
+      <c r="A64" s="27"/>
+      <c r="B64" s="37"/>
+      <c r="C64" s="33"/>
+      <c r="D64" s="37"/>
+      <c r="E64" s="33"/>
+      <c r="F64" s="37"/>
+      <c r="G64" s="33"/>
+      <c r="H64" s="37"/>
+      <c r="I64" s="33"/>
+      <c r="J64" s="37"/>
+      <c r="K64" s="33"/>
+      <c r="L64" s="37"/>
+      <c r="M64" s="33"/>
+      <c r="N64" s="37"/>
+      <c r="O64" s="33"/>
+      <c r="P64" s="37"/>
+      <c r="Q64" s="33"/>
+      <c r="R64" s="37"/>
+      <c r="S64" s="33"/>
+      <c r="T64" s="37"/>
+      <c r="U64" s="33"/>
+    </row>
+    <row r="65" spans="1:21" ht="12.5">
+      <c r="A65" s="27"/>
+      <c r="B65" s="37"/>
+      <c r="C65" s="33"/>
+      <c r="D65" s="37"/>
+      <c r="E65" s="33"/>
+      <c r="F65" s="37"/>
+      <c r="G65" s="33"/>
+      <c r="H65" s="37"/>
+      <c r="I65" s="33"/>
+      <c r="J65" s="37"/>
+      <c r="K65" s="33"/>
+      <c r="L65" s="37"/>
+      <c r="M65" s="33"/>
+      <c r="N65" s="37"/>
+      <c r="O65" s="33"/>
+      <c r="P65" s="37"/>
+      <c r="Q65" s="33"/>
+      <c r="R65" s="37"/>
+      <c r="S65" s="33"/>
+      <c r="T65" s="37"/>
+      <c r="U65" s="33"/>
+    </row>
+    <row r="66" spans="1:21" ht="12.5">
+      <c r="A66" s="27"/>
+      <c r="B66" s="37"/>
+      <c r="C66" s="33"/>
+      <c r="D66" s="37"/>
+      <c r="E66" s="33"/>
+      <c r="F66" s="37"/>
+      <c r="G66" s="33"/>
+      <c r="H66" s="37"/>
+      <c r="I66" s="33"/>
+      <c r="J66" s="37"/>
+      <c r="K66" s="33"/>
+      <c r="L66" s="37"/>
+      <c r="M66" s="33"/>
+      <c r="N66" s="37"/>
+      <c r="O66" s="33"/>
+      <c r="P66" s="37"/>
+      <c r="Q66" s="33"/>
+      <c r="R66" s="37"/>
+      <c r="S66" s="33"/>
+      <c r="T66" s="37"/>
+      <c r="U66" s="33"/>
+    </row>
+    <row r="67" spans="1:21" ht="12.5">
+      <c r="A67" s="27"/>
+      <c r="B67" s="37"/>
+      <c r="C67" s="33"/>
+      <c r="D67" s="37"/>
+      <c r="E67" s="33"/>
+      <c r="F67" s="37"/>
+      <c r="G67" s="33"/>
+      <c r="H67" s="37"/>
+      <c r="I67" s="33"/>
+      <c r="J67" s="37"/>
+      <c r="K67" s="33"/>
+      <c r="L67" s="37"/>
+      <c r="M67" s="33"/>
+      <c r="N67" s="37"/>
+      <c r="O67" s="33"/>
+      <c r="P67" s="37"/>
+      <c r="Q67" s="33"/>
+      <c r="R67" s="37"/>
+      <c r="S67" s="33"/>
+      <c r="T67" s="37"/>
+      <c r="U67" s="33"/>
+    </row>
+    <row r="68" spans="1:21" ht="12.5">
+      <c r="A68" s="27"/>
+      <c r="B68" s="37"/>
+      <c r="C68" s="33"/>
+      <c r="D68" s="37"/>
+      <c r="E68" s="33"/>
+      <c r="F68" s="37"/>
+      <c r="G68" s="33"/>
+      <c r="H68" s="37"/>
+      <c r="I68" s="33"/>
+      <c r="J68" s="37"/>
+      <c r="K68" s="33"/>
+      <c r="L68" s="37"/>
+      <c r="M68" s="33"/>
+      <c r="N68" s="37"/>
+      <c r="O68" s="33"/>
+      <c r="P68" s="37"/>
+      <c r="Q68" s="33"/>
+      <c r="R68" s="37"/>
+      <c r="S68" s="33"/>
+      <c r="T68" s="37"/>
+      <c r="U68" s="33"/>
+    </row>
+    <row r="69" spans="1:21" ht="12.5">
+      <c r="A69" s="27"/>
+      <c r="B69" s="37"/>
+      <c r="C69" s="33"/>
+      <c r="D69" s="37"/>
+      <c r="E69" s="33"/>
+      <c r="F69" s="37"/>
+      <c r="G69" s="33"/>
+      <c r="H69" s="37"/>
+      <c r="I69" s="33"/>
+      <c r="J69" s="37"/>
+      <c r="K69" s="33"/>
+      <c r="L69" s="37"/>
+      <c r="M69" s="33"/>
+      <c r="N69" s="37"/>
+      <c r="O69" s="33"/>
+      <c r="P69" s="37"/>
+      <c r="Q69" s="33"/>
+      <c r="R69" s="37"/>
+      <c r="S69" s="33"/>
+      <c r="T69" s="37"/>
+      <c r="U69" s="33"/>
+    </row>
+    <row r="70" spans="1:21" ht="12.5">
+      <c r="A70" s="27"/>
+      <c r="B70" s="37"/>
+      <c r="C70" s="33"/>
+      <c r="D70" s="37"/>
+      <c r="E70" s="33"/>
+      <c r="F70" s="37"/>
+      <c r="G70" s="33"/>
+      <c r="H70" s="37"/>
+      <c r="I70" s="33"/>
+      <c r="J70" s="37"/>
+      <c r="K70" s="33"/>
+      <c r="L70" s="37"/>
+      <c r="M70" s="33"/>
+      <c r="N70" s="37"/>
+      <c r="O70" s="33"/>
+      <c r="P70" s="37"/>
+      <c r="Q70" s="33"/>
+      <c r="R70" s="37"/>
+      <c r="S70" s="33"/>
+      <c r="T70" s="37"/>
+      <c r="U70" s="33"/>
+    </row>
+    <row r="71" spans="1:21" ht="12.5">
+      <c r="A71" s="27"/>
+      <c r="B71" s="37"/>
+      <c r="C71" s="33"/>
+      <c r="D71" s="37"/>
+      <c r="E71" s="33"/>
+      <c r="F71" s="37"/>
+      <c r="G71" s="33"/>
+      <c r="H71" s="37"/>
+      <c r="I71" s="33"/>
+      <c r="J71" s="37"/>
+      <c r="K71" s="33"/>
+      <c r="L71" s="37"/>
+      <c r="M71" s="33"/>
+      <c r="N71" s="37"/>
+      <c r="O71" s="33"/>
+      <c r="P71" s="37"/>
+      <c r="Q71" s="33"/>
+      <c r="R71" s="37"/>
+      <c r="S71" s="33"/>
+      <c r="T71" s="37"/>
+      <c r="U71" s="33"/>
+    </row>
+    <row r="72" spans="1:21" ht="12.5">
+      <c r="A72" s="27"/>
+      <c r="B72" s="37"/>
+      <c r="C72" s="33"/>
+      <c r="D72" s="37"/>
+      <c r="E72" s="33"/>
+      <c r="F72" s="37"/>
+      <c r="G72" s="33"/>
+      <c r="H72" s="37"/>
+      <c r="I72" s="33"/>
+      <c r="J72" s="37"/>
+      <c r="K72" s="33"/>
+      <c r="L72" s="37"/>
+      <c r="M72" s="33"/>
+      <c r="N72" s="37"/>
+      <c r="O72" s="33"/>
+      <c r="P72" s="37"/>
+      <c r="Q72" s="33"/>
+      <c r="R72" s="37"/>
+      <c r="S72" s="33"/>
+      <c r="T72" s="37"/>
+      <c r="U72" s="33"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -4373,16 +4363,19 @@
   </sheetPr>
   <dimension ref="A1:Y177"/>
   <sheetViews>
-    <sheetView topLeftCell="A204" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A131" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G10" sqref="G10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="26.83203125" customWidth="1"/>
-    <col min="2" max="2" width="27.1640625" customWidth="1"/>
-    <col min="4" max="4" width="35.33203125" customWidth="1"/>
+    <col min="1" max="1" width="26.81640625" customWidth="1"/>
+    <col min="2" max="2" width="27.1796875" customWidth="1"/>
+    <col min="4" max="4" width="35.36328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="15.75" customHeight="1">
+    <row r="1" spans="1:6" ht="15.75" customHeight="1">
       <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
@@ -4393,7 +4386,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="15.75" customHeight="1">
+    <row r="2" spans="1:6" ht="15.75" customHeight="1">
       <c r="A2" s="10" t="s">
         <v>3</v>
       </c>
@@ -4403,9 +4396,11 @@
       <c r="C2" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D2" s="12"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1">
+      <c r="D2" s="49"/>
+      <c r="E2" s="49"/>
+      <c r="F2" s="49"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" customHeight="1">
       <c r="A3" s="10" t="s">
         <v>5</v>
       </c>
@@ -4415,9 +4410,11 @@
       <c r="C3" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D3" s="12"/>
-    </row>
-    <row r="4" spans="1:5" ht="15.75" customHeight="1">
+      <c r="D3" s="49"/>
+      <c r="E3" s="49"/>
+      <c r="F3" s="49"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" customHeight="1">
       <c r="A4" s="10" t="s">
         <v>7</v>
       </c>
@@ -4427,9 +4424,12 @@
       <c r="C4" s="9" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" ht="15.75" customHeight="1">
-      <c r="A5" s="14" t="s">
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="49"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" customHeight="1">
+      <c r="A5" s="13" t="s">
         <v>9</v>
       </c>
       <c r="B5" s="10" t="s">
@@ -4438,8 +4438,11 @@
       <c r="C5" s="9" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" ht="15.75" customHeight="1">
+      <c r="D5" s="49"/>
+      <c r="E5" s="49"/>
+      <c r="F5" s="49"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" customHeight="1">
       <c r="A6" s="10" t="s">
         <v>13</v>
       </c>
@@ -4449,9 +4452,11 @@
       <c r="C6" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D6" s="12"/>
-    </row>
-    <row r="7" spans="1:5" ht="15.75" customHeight="1">
+      <c r="D6" s="49"/>
+      <c r="E6" s="49"/>
+      <c r="F6" s="49"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" customHeight="1">
       <c r="A7" s="10" t="s">
         <v>15</v>
       </c>
@@ -4461,10 +4466,11 @@
       <c r="C7" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D7" s="16"/>
-      <c r="E7" s="18"/>
-    </row>
-    <row r="8" spans="1:5" ht="15.75" customHeight="1">
+      <c r="D7" s="49"/>
+      <c r="E7" s="49"/>
+      <c r="F7" s="49"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" customHeight="1">
       <c r="A8" s="4" t="s">
         <v>11</v>
       </c>
@@ -4474,9 +4480,11 @@
       <c r="C8" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D8" s="12"/>
-    </row>
-    <row r="9" spans="1:5" ht="15.75" customHeight="1">
+      <c r="D8" s="49"/>
+      <c r="E8" s="49"/>
+      <c r="F8" s="49"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" customHeight="1">
       <c r="A9" s="10" t="s">
         <v>17</v>
       </c>
@@ -4486,10 +4494,11 @@
       <c r="C9" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D9" s="20"/>
-      <c r="E9" s="12"/>
-    </row>
-    <row r="10" spans="1:5" ht="15.75" customHeight="1">
+      <c r="D9" s="49"/>
+      <c r="E9" s="49"/>
+      <c r="F9" s="49"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" customHeight="1">
       <c r="A10" s="10" t="s">
         <v>19</v>
       </c>
@@ -4499,9 +4508,11 @@
       <c r="C10" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D10" s="12"/>
-    </row>
-    <row r="11" spans="1:5" ht="15.75" customHeight="1">
+      <c r="D10" s="49"/>
+      <c r="E10" s="49"/>
+      <c r="F10" s="49"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" customHeight="1">
       <c r="A11" s="10" t="s">
         <v>21</v>
       </c>
@@ -4511,9 +4522,11 @@
       <c r="C11" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D11" s="12"/>
-    </row>
-    <row r="12" spans="1:5" ht="15.75" customHeight="1">
+      <c r="D11" s="49"/>
+      <c r="E11" s="49"/>
+      <c r="F11" s="49"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" customHeight="1">
       <c r="A12" s="10" t="s">
         <v>23</v>
       </c>
@@ -4523,9 +4536,11 @@
       <c r="C12" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D12" s="12"/>
-    </row>
-    <row r="13" spans="1:5" ht="15.75" customHeight="1">
+      <c r="D12" s="49"/>
+      <c r="E12" s="49"/>
+      <c r="F12" s="49"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" customHeight="1">
       <c r="A13" s="10" t="s">
         <v>25</v>
       </c>
@@ -4535,9 +4550,11 @@
       <c r="C13" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D13" s="16"/>
-    </row>
-    <row r="14" spans="1:5" ht="15.75" customHeight="1">
+      <c r="D13" s="49"/>
+      <c r="E13" s="49"/>
+      <c r="F13" s="49"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" customHeight="1">
       <c r="A14" s="10" t="s">
         <v>27</v>
       </c>
@@ -4547,9 +4564,11 @@
       <c r="C14" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D14" s="23"/>
-    </row>
-    <row r="15" spans="1:5" ht="15.75" customHeight="1">
+      <c r="D14" s="49"/>
+      <c r="E14" s="49"/>
+      <c r="F14" s="49"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" customHeight="1">
       <c r="A15" s="4" t="s">
         <v>29</v>
       </c>
@@ -4559,9 +4578,11 @@
       <c r="C15" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D15" s="12"/>
-    </row>
-    <row r="16" spans="1:5" ht="15.75" customHeight="1">
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" customHeight="1">
       <c r="A16" s="10" t="s">
         <v>31</v>
       </c>
@@ -4571,7 +4592,9 @@
       <c r="C16" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D16" s="23"/>
+      <c r="D16" s="49"/>
+      <c r="E16" s="49"/>
+      <c r="F16" s="49"/>
     </row>
     <row r="17" spans="1:25" ht="15.75" customHeight="1">
       <c r="A17" s="10" t="s">
@@ -4583,7 +4606,9 @@
       <c r="C17" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D17" s="23"/>
+      <c r="D17" s="49"/>
+      <c r="E17" s="49"/>
+      <c r="F17" s="49"/>
     </row>
     <row r="18" spans="1:25" ht="15.75" customHeight="1">
       <c r="A18" s="10" t="s">
@@ -4595,19 +4620,23 @@
       <c r="C18" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D18" s="23"/>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="49"/>
     </row>
     <row r="19" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A19" s="31" t="s">
+      <c r="A19" s="28" t="s">
         <v>48</v>
       </c>
-      <c r="B19" s="33" t="s">
+      <c r="B19" s="30" t="s">
         <v>48</v>
       </c>
       <c r="C19" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D19" s="18"/>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="49"/>
     </row>
     <row r="20" spans="1:25" ht="15.75" customHeight="1">
       <c r="A20" s="10" t="s">
@@ -4619,7 +4648,9 @@
       <c r="C20" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D20" s="35"/>
+      <c r="D20" s="49"/>
+      <c r="E20" s="49"/>
+      <c r="F20" s="49"/>
     </row>
     <row r="21" spans="1:25" ht="15.75" customHeight="1">
       <c r="A21" s="10" t="s">
@@ -4631,31 +4662,37 @@
       <c r="C21" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D21" s="16"/>
+      <c r="D21" s="49"/>
+      <c r="E21" s="49"/>
+      <c r="F21" s="49"/>
     </row>
     <row r="22" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A22" s="38" t="s">
+      <c r="A22" s="34" t="s">
         <v>79</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="34" t="s">
         <v>79</v>
       </c>
       <c r="C22" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D22" s="16"/>
+      <c r="D22" s="49"/>
+      <c r="E22" s="49"/>
+      <c r="F22" s="49"/>
     </row>
     <row r="23" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A23" s="38" t="s">
+      <c r="A23" s="34" t="s">
         <v>80</v>
       </c>
-      <c r="B23" s="38" t="s">
+      <c r="B23" s="34" t="s">
         <v>80</v>
       </c>
       <c r="C23" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D23" s="16"/>
+      <c r="D23" s="49"/>
+      <c r="E23" s="49"/>
+      <c r="F23" s="49"/>
     </row>
     <row r="24" spans="1:25" ht="15.75" customHeight="1">
       <c r="A24" s="10" t="s">
@@ -4667,7 +4704,9 @@
       <c r="C24" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D24" s="23"/>
+      <c r="D24" s="49"/>
+      <c r="E24" s="49"/>
+      <c r="F24" s="49"/>
     </row>
     <row r="25" spans="1:25" ht="15.75" customHeight="1">
       <c r="A25" s="10" t="s">
@@ -4679,7 +4718,9 @@
       <c r="C25" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D25" s="16"/>
+      <c r="D25" s="49"/>
+      <c r="E25" s="49"/>
+      <c r="F25" s="49"/>
     </row>
     <row r="26" spans="1:25" ht="15.75" customHeight="1">
       <c r="A26" s="10" t="s">
@@ -4691,7 +4732,9 @@
       <c r="C26" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D26" s="16"/>
+      <c r="D26" s="49"/>
+      <c r="E26" s="49"/>
+      <c r="F26" s="49"/>
     </row>
     <row r="27" spans="1:25" ht="15.75" customHeight="1">
       <c r="A27" s="10" t="s">
@@ -4703,14 +4746,16 @@
       <c r="C27" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D27" s="16"/>
-      <c r="S27" s="43"/>
-      <c r="T27" s="43"/>
-      <c r="U27" s="43"/>
-      <c r="V27" s="43"/>
-      <c r="W27" s="43"/>
-      <c r="X27" s="43"/>
-      <c r="Y27" s="43"/>
+      <c r="D27" s="49"/>
+      <c r="E27" s="49"/>
+      <c r="F27" s="49"/>
+      <c r="S27" s="49"/>
+      <c r="T27" s="49"/>
+      <c r="U27" s="49"/>
+      <c r="V27" s="49"/>
+      <c r="W27" s="49"/>
+      <c r="X27" s="49"/>
+      <c r="Y27" s="49"/>
     </row>
     <row r="28" spans="1:25" ht="15.75" customHeight="1">
       <c r="A28" s="10" t="s">
@@ -4722,7 +4767,9 @@
       <c r="C28" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D28" s="12"/>
+      <c r="D28" s="49"/>
+      <c r="E28" s="49"/>
+      <c r="F28" s="49"/>
     </row>
     <row r="29" spans="1:25" ht="15.75" customHeight="1">
       <c r="A29" s="10" t="s">
@@ -4734,31 +4781,37 @@
       <c r="C29" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D29" s="12"/>
+      <c r="D29" s="49"/>
+      <c r="E29" s="49"/>
+      <c r="F29" s="49"/>
     </row>
     <row r="30" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A30" s="38" t="s">
+      <c r="A30" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="B30" s="44" t="s">
+      <c r="B30" s="39" t="s">
         <v>110</v>
       </c>
       <c r="C30" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D30" s="16"/>
+      <c r="D30" s="49"/>
+      <c r="E30" s="49"/>
+      <c r="F30" s="49"/>
     </row>
     <row r="31" spans="1:25" ht="15.75" customHeight="1">
-      <c r="A31" s="38" t="s">
+      <c r="A31" s="34" t="s">
         <v>111</v>
       </c>
-      <c r="B31" s="44" t="s">
+      <c r="B31" s="39" t="s">
         <v>111</v>
       </c>
       <c r="C31" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D31" s="16"/>
+      <c r="D31" s="49"/>
+      <c r="E31" s="49"/>
+      <c r="F31" s="49"/>
     </row>
     <row r="32" spans="1:25" ht="15.75" customHeight="1">
       <c r="A32" s="10" t="s">
@@ -4770,7 +4823,7 @@
       <c r="C32" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D32" s="16"/>
+      <c r="D32" s="15"/>
     </row>
     <row r="33" spans="1:4" ht="15.75" customHeight="1">
       <c r="A33" s="10" t="s">
@@ -4782,7 +4835,7 @@
       <c r="C33" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D33" s="16"/>
+      <c r="D33" s="15"/>
     </row>
     <row r="34" spans="1:4" ht="15.75" customHeight="1">
       <c r="A34" s="10" t="s">
@@ -4794,7 +4847,7 @@
       <c r="C34" s="9" t="s">
         <v>49</v>
       </c>
-      <c r="D34" s="23"/>
+      <c r="D34" s="20"/>
     </row>
     <row r="35" spans="1:4" ht="15.75" customHeight="1">
       <c r="A35" s="8" t="s">
@@ -4983,7 +5036,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="52" spans="1:3" ht="13">
+    <row r="52" spans="1:3" ht="12.5">
       <c r="A52" s="8" t="s">
         <v>154</v>
       </c>
@@ -4994,7 +5047,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="53" spans="1:3" ht="13">
+    <row r="53" spans="1:3" ht="12.5">
       <c r="A53" s="8" t="s">
         <v>156</v>
       </c>
@@ -5005,7 +5058,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="13">
+    <row r="54" spans="1:3" ht="12.5">
       <c r="A54" s="8" t="s">
         <v>157</v>
       </c>
@@ -5016,7 +5069,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="13">
+    <row r="55" spans="1:3" ht="12.5">
       <c r="A55" s="8" t="s">
         <v>158</v>
       </c>
@@ -5027,7 +5080,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="13">
+    <row r="56" spans="1:3" ht="12.5">
       <c r="A56" s="8" t="s">
         <v>159</v>
       </c>
@@ -5038,7 +5091,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="13">
+    <row r="57" spans="1:3" ht="12.5">
       <c r="A57" s="8" t="s">
         <v>86</v>
       </c>
@@ -5049,7 +5102,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="14">
+    <row r="58" spans="1:3" ht="12.5">
       <c r="A58" s="10" t="s">
         <v>106</v>
       </c>
@@ -5060,7 +5113,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="13">
+    <row r="59" spans="1:3" ht="12.5">
       <c r="A59" s="8" t="s">
         <v>136</v>
       </c>
@@ -5071,7 +5124,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="13">
+    <row r="60" spans="1:3" ht="12.5">
       <c r="A60" s="8" t="s">
         <v>163</v>
       </c>
@@ -5082,7 +5135,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="13">
+    <row r="61" spans="1:3" ht="12.5">
       <c r="A61" s="8" t="s">
         <v>164</v>
       </c>
@@ -5093,7 +5146,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="13">
+    <row r="62" spans="1:3" ht="12.5">
       <c r="A62" s="8" t="s">
         <v>150</v>
       </c>
@@ -5104,7 +5157,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="13">
+    <row r="63" spans="1:3" ht="12.5">
       <c r="A63" s="8" t="s">
         <v>166</v>
       </c>
@@ -5115,7 +5168,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="13">
+    <row r="64" spans="1:3" ht="12.5">
       <c r="A64" s="8" t="s">
         <v>107</v>
       </c>
@@ -5126,7 +5179,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="13">
+    <row r="65" spans="1:3" ht="12.5">
       <c r="A65" s="8" t="s">
         <v>169</v>
       </c>
@@ -5137,7 +5190,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="13">
+    <row r="66" spans="1:3" ht="12.5">
       <c r="A66" s="8" t="s">
         <v>123</v>
       </c>
@@ -5148,7 +5201,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="13">
+    <row r="67" spans="1:3" ht="12.5">
       <c r="A67" s="8" t="s">
         <v>170</v>
       </c>
@@ -5159,7 +5212,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="13">
+    <row r="68" spans="1:3" ht="12.5">
       <c r="A68" s="8" t="s">
         <v>172</v>
       </c>
@@ -5170,7 +5223,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="13">
+    <row r="69" spans="1:3" ht="12.5">
       <c r="A69" s="8" t="s">
         <v>154</v>
       </c>
@@ -5181,7 +5234,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="13">
+    <row r="70" spans="1:3" ht="12.5">
       <c r="A70" s="8" t="s">
         <v>174</v>
       </c>
@@ -5192,7 +5245,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="13">
+    <row r="71" spans="1:3" ht="12.5">
       <c r="A71" s="8" t="s">
         <v>175</v>
       </c>
@@ -5203,18 +5256,18 @@
         <v>135</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="13">
-      <c r="A72" s="44" t="s">
+    <row r="72" spans="1:3" ht="12.5">
+      <c r="A72" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="B72" s="44" t="s">
+      <c r="B72" s="39" t="s">
         <v>111</v>
       </c>
       <c r="C72" s="8" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="13">
+    <row r="73" spans="1:3" ht="12.5">
       <c r="A73" s="8" t="s">
         <v>176</v>
       </c>
@@ -5225,7 +5278,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="13">
+    <row r="74" spans="1:3" ht="12.5">
       <c r="A74" s="8" t="s">
         <v>177</v>
       </c>
@@ -5236,7 +5289,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="13">
+    <row r="75" spans="1:3" ht="12.5">
       <c r="A75" s="8" t="s">
         <v>178</v>
       </c>
@@ -5247,7 +5300,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="13">
+    <row r="76" spans="1:3" ht="12.5">
       <c r="A76" s="8" t="s">
         <v>180</v>
       </c>
@@ -5258,7 +5311,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="13">
+    <row r="77" spans="1:3" ht="12.5">
       <c r="A77" s="8" t="s">
         <v>181</v>
       </c>
@@ -5269,7 +5322,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="13">
+    <row r="78" spans="1:3" ht="12.5">
       <c r="A78" s="8" t="s">
         <v>102</v>
       </c>
@@ -5280,7 +5333,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="13">
+    <row r="79" spans="1:3" ht="12.5">
       <c r="A79" s="8" t="s">
         <v>183</v>
       </c>
@@ -5291,7 +5344,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="13">
+    <row r="80" spans="1:3" ht="12.5">
       <c r="A80" s="8" t="s">
         <v>86</v>
       </c>
@@ -5302,7 +5355,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="13">
+    <row r="81" spans="1:3" ht="12.5">
       <c r="A81" s="8" t="s">
         <v>185</v>
       </c>
@@ -5313,18 +5366,18 @@
         <v>135</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="13">
-      <c r="A82" s="44" t="s">
+    <row r="82" spans="1:3" ht="12.5">
+      <c r="A82" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="B82" s="44" t="s">
+      <c r="B82" s="39" t="s">
         <v>111</v>
       </c>
       <c r="C82" s="8" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="13">
+    <row r="83" spans="1:3" ht="12.5">
       <c r="A83" s="8" t="s">
         <v>187</v>
       </c>
@@ -5335,7 +5388,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="13">
+    <row r="84" spans="1:3" ht="12.5">
       <c r="A84" s="8" t="s">
         <v>86</v>
       </c>
@@ -5346,7 +5399,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="13">
+    <row r="85" spans="1:3" ht="12.5">
       <c r="A85" s="8" t="s">
         <v>189</v>
       </c>
@@ -5357,7 +5410,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="13">
+    <row r="86" spans="1:3" ht="12.5">
       <c r="A86" s="8" t="s">
         <v>107</v>
       </c>
@@ -5368,7 +5421,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="87" spans="1:3" ht="13">
+    <row r="87" spans="1:3" ht="12.5">
       <c r="A87" s="8" t="s">
         <v>190</v>
       </c>
@@ -5379,7 +5432,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="13">
+    <row r="88" spans="1:3" ht="12.5">
       <c r="A88" s="8" t="s">
         <v>192</v>
       </c>
@@ -5390,7 +5443,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="13">
+    <row r="89" spans="1:3" ht="12.5">
       <c r="A89" s="8" t="s">
         <v>194</v>
       </c>
@@ -5401,7 +5454,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="13">
+    <row r="90" spans="1:3" ht="12.5">
       <c r="A90" s="8" t="s">
         <v>196</v>
       </c>
@@ -5412,7 +5465,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="13">
+    <row r="91" spans="1:3" ht="12.5">
       <c r="A91" s="8" t="s">
         <v>86</v>
       </c>
@@ -5423,7 +5476,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="13">
+    <row r="92" spans="1:3" ht="12.5">
       <c r="A92" s="8" t="s">
         <v>198</v>
       </c>
@@ -5434,7 +5487,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="13">
+    <row r="93" spans="1:3" ht="12.5">
       <c r="A93" s="8" t="s">
         <v>123</v>
       </c>
@@ -5445,18 +5498,18 @@
         <v>135</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="13">
-      <c r="A94" s="44" t="s">
+    <row r="94" spans="1:3" ht="12.5">
+      <c r="A94" s="39" t="s">
         <v>111</v>
       </c>
-      <c r="B94" s="44" t="s">
+      <c r="B94" s="39" t="s">
         <v>111</v>
       </c>
       <c r="C94" s="8" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="13">
+    <row r="95" spans="1:3" ht="12.5">
       <c r="A95" s="8" t="s">
         <v>200</v>
       </c>
@@ -5467,7 +5520,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="13">
+    <row r="96" spans="1:3" ht="12.5">
       <c r="A96" s="8" t="s">
         <v>201</v>
       </c>
@@ -5478,7 +5531,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="13">
+    <row r="97" spans="1:3" ht="12.5">
       <c r="A97" s="8" t="s">
         <v>202</v>
       </c>
@@ -5489,18 +5542,18 @@
         <v>135</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="13">
-      <c r="A98" s="44" t="s">
+    <row r="98" spans="1:3" ht="12.5">
+      <c r="A98" s="39" t="s">
         <v>110</v>
       </c>
-      <c r="B98" s="44" t="s">
+      <c r="B98" s="39" t="s">
         <v>110</v>
       </c>
       <c r="C98" s="8" t="s">
         <v>135</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="13">
+    <row r="99" spans="1:3" ht="12.5">
       <c r="A99" s="8" t="s">
         <v>204</v>
       </c>
@@ -5511,7 +5564,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="13">
+    <row r="100" spans="1:3" ht="12.5">
       <c r="A100" s="8" t="s">
         <v>205</v>
       </c>
@@ -5522,7 +5575,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="13">
+    <row r="101" spans="1:3" ht="12.5">
       <c r="A101" s="8" t="s">
         <v>107</v>
       </c>
@@ -5533,7 +5586,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="13">
+    <row r="102" spans="1:3" ht="12.5">
       <c r="A102" s="8" t="s">
         <v>150</v>
       </c>
@@ -5544,7 +5597,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="13">
+    <row r="103" spans="1:3" ht="12.5">
       <c r="A103" s="8" t="s">
         <v>169</v>
       </c>
@@ -5555,7 +5608,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="13">
+    <row r="104" spans="1:3" ht="12.5">
       <c r="A104" s="8" t="s">
         <v>154</v>
       </c>
@@ -5566,7 +5619,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="13">
+    <row r="105" spans="1:3" ht="12.5">
       <c r="A105" s="8" t="s">
         <v>166</v>
       </c>
@@ -5577,7 +5630,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="13">
+    <row r="106" spans="1:3" ht="12.5">
       <c r="A106" s="8" t="s">
         <v>123</v>
       </c>
@@ -5588,7 +5641,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="13">
+    <row r="107" spans="1:3" ht="12.5">
       <c r="A107" s="8" t="s">
         <v>32</v>
       </c>
@@ -5599,7 +5652,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="13">
+    <row r="108" spans="1:3" ht="12.5">
       <c r="A108" s="8" t="s">
         <v>33</v>
       </c>
@@ -5610,7 +5663,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="13">
+    <row r="109" spans="1:3" ht="12.5">
       <c r="A109" s="8" t="s">
         <v>34</v>
       </c>
@@ -5621,7 +5674,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="13">
+    <row r="110" spans="1:3" ht="12.5">
       <c r="A110" s="8" t="s">
         <v>36</v>
       </c>
@@ -5632,7 +5685,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="13">
+    <row r="111" spans="1:3" ht="12.5">
       <c r="A111" s="8" t="s">
         <v>37</v>
       </c>
@@ -5643,7 +5696,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="14">
+    <row r="112" spans="1:3" ht="12.5">
       <c r="A112" s="10" t="s">
         <v>38</v>
       </c>
@@ -5654,7 +5707,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="13">
+    <row r="113" spans="1:3" ht="12.5">
       <c r="A113" s="8" t="s">
         <v>41</v>
       </c>
@@ -5665,7 +5718,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="13">
+    <row r="114" spans="1:3" ht="12.5">
       <c r="A114" s="8" t="s">
         <v>43</v>
       </c>
@@ -5676,7 +5729,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="13">
+    <row r="115" spans="1:3" ht="12.5">
       <c r="A115" s="8" t="s">
         <v>44</v>
       </c>
@@ -5687,7 +5740,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="13">
+    <row r="116" spans="1:3" ht="12.5">
       <c r="A116" s="8" t="s">
         <v>45</v>
       </c>
@@ -5698,7 +5751,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="13">
+    <row r="117" spans="1:3" ht="12.5">
       <c r="A117" s="8" t="s">
         <v>34</v>
       </c>
@@ -5709,7 +5762,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="13">
+    <row r="118" spans="1:3" ht="12.5">
       <c r="A118" s="8" t="s">
         <v>46</v>
       </c>
@@ -5720,7 +5773,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="13">
+    <row r="119" spans="1:3" ht="12.5">
       <c r="A119" s="8" t="s">
         <v>71</v>
       </c>
@@ -5731,7 +5784,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="13">
+    <row r="120" spans="1:3" ht="12.5">
       <c r="A120" s="8" t="s">
         <v>72</v>
       </c>
@@ -5742,7 +5795,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="13">
+    <row r="121" spans="1:3" ht="12.5">
       <c r="A121" s="8" t="s">
         <v>73</v>
       </c>
@@ -5753,7 +5806,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="13">
+    <row r="122" spans="1:3" ht="12.5">
       <c r="A122" s="8" t="s">
         <v>74</v>
       </c>
@@ -5764,7 +5817,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="13">
+    <row r="123" spans="1:3" ht="12.5">
       <c r="A123" s="8" t="s">
         <v>44</v>
       </c>
@@ -5775,7 +5828,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="13">
+    <row r="124" spans="1:3" ht="12.5">
       <c r="A124" s="8" t="s">
         <v>75</v>
       </c>
@@ -5786,7 +5839,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="13">
+    <row r="125" spans="1:3" ht="12.5">
       <c r="A125" s="8" t="s">
         <v>75</v>
       </c>
@@ -5797,7 +5850,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="13">
+    <row r="126" spans="1:3" ht="12.5">
       <c r="A126" s="8" t="s">
         <v>77</v>
       </c>
@@ -5808,7 +5861,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="13">
+    <row r="127" spans="1:3" ht="12.5">
       <c r="A127" s="8" t="s">
         <v>78</v>
       </c>
@@ -5819,7 +5872,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="13">
+    <row r="128" spans="1:3" ht="12.5">
       <c r="A128" s="8" t="s">
         <v>37</v>
       </c>
@@ -5830,7 +5883,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="13">
+    <row r="129" spans="1:3" ht="12.5">
       <c r="A129" s="8" t="s">
         <v>75</v>
       </c>
@@ -5841,7 +5894,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="13">
+    <row r="130" spans="1:3" ht="12.5">
       <c r="A130" s="8" t="s">
         <v>44</v>
       </c>
@@ -5852,7 +5905,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="13">
+    <row r="131" spans="1:3" ht="12.5">
       <c r="A131" s="8" t="s">
         <v>82</v>
       </c>
@@ -5863,7 +5916,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="13">
+    <row r="132" spans="1:3" ht="12.5">
       <c r="A132" s="8" t="s">
         <v>83</v>
       </c>
@@ -5874,7 +5927,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="13">
+    <row r="133" spans="1:3" ht="12.5">
       <c r="A133" s="8" t="s">
         <v>84</v>
       </c>
@@ -5885,7 +5938,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="13">
+    <row r="134" spans="1:3" ht="12.5">
       <c r="A134" s="8" t="s">
         <v>85</v>
       </c>
@@ -5896,7 +5949,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="13">
+    <row r="135" spans="1:3" ht="12.5">
       <c r="A135" s="8" t="s">
         <v>86</v>
       </c>
@@ -5907,7 +5960,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="13">
+    <row r="136" spans="1:3" ht="12.5">
       <c r="A136" s="8" t="s">
         <v>88</v>
       </c>
@@ -5918,7 +5971,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="13">
+    <row r="137" spans="1:3" ht="12.5">
       <c r="A137" s="8" t="s">
         <v>44</v>
       </c>
@@ -5929,7 +5982,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="13">
+    <row r="138" spans="1:3" ht="12.5">
       <c r="A138" s="8" t="s">
         <v>41</v>
       </c>
@@ -5940,7 +5993,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="13">
+    <row r="139" spans="1:3" ht="12.5">
       <c r="A139" s="8" t="s">
         <v>90</v>
       </c>
@@ -5951,7 +6004,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="13">
+    <row r="140" spans="1:3" ht="12.5">
       <c r="A140" s="8" t="s">
         <v>91</v>
       </c>
@@ -5962,7 +6015,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="13">
+    <row r="141" spans="1:3" ht="12.5">
       <c r="A141" s="8" t="s">
         <v>44</v>
       </c>
@@ -5973,7 +6026,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="13">
+    <row r="142" spans="1:3" ht="12.5">
       <c r="A142" s="8" t="s">
         <v>93</v>
       </c>
@@ -5984,7 +6037,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="13">
+    <row r="143" spans="1:3" ht="12.5">
       <c r="A143" s="8" t="s">
         <v>94</v>
       </c>
@@ -5995,7 +6048,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="13">
+    <row r="144" spans="1:3" ht="12.5">
       <c r="A144" s="8" t="s">
         <v>96</v>
       </c>
@@ -6006,7 +6059,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="13">
+    <row r="145" spans="1:3" ht="12.5">
       <c r="A145" s="8" t="s">
         <v>97</v>
       </c>
@@ -6017,7 +6070,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="13">
+    <row r="146" spans="1:3" ht="12.5">
       <c r="A146" s="8" t="s">
         <v>99</v>
       </c>
@@ -6028,7 +6081,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="13">
+    <row r="147" spans="1:3" ht="12.5">
       <c r="A147" s="8" t="s">
         <v>100</v>
       </c>
@@ -6039,7 +6092,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="13">
+    <row r="148" spans="1:3" ht="12.5">
       <c r="A148" s="8" t="s">
         <v>101</v>
       </c>
@@ -6050,7 +6103,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="13">
+    <row r="149" spans="1:3" ht="12.5">
       <c r="A149" s="8" t="s">
         <v>103</v>
       </c>
@@ -6061,18 +6114,18 @@
         <v>215</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="13">
-      <c r="A150" s="38" t="s">
+    <row r="150" spans="1:3" ht="12.5">
+      <c r="A150" s="34" t="s">
         <v>104</v>
       </c>
-      <c r="B150" s="38" t="s">
+      <c r="B150" s="34" t="s">
         <v>104</v>
       </c>
       <c r="C150" s="8" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="13">
+    <row r="151" spans="1:3" ht="12.5">
       <c r="A151" s="8" t="s">
         <v>105</v>
       </c>
@@ -6083,7 +6136,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="13">
+    <row r="152" spans="1:3" ht="12.5">
       <c r="A152" s="8" t="s">
         <v>75</v>
       </c>
@@ -6094,7 +6147,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="13">
+    <row r="153" spans="1:3" ht="12.5">
       <c r="A153" s="8" t="s">
         <v>107</v>
       </c>
@@ -6105,7 +6158,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="14">
+    <row r="154" spans="1:3" ht="12.5">
       <c r="A154" s="10" t="s">
         <v>42</v>
       </c>
@@ -6116,7 +6169,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="13">
+    <row r="155" spans="1:3" ht="12.5">
       <c r="A155" s="8" t="s">
         <v>108</v>
       </c>
@@ -6127,7 +6180,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="13">
+    <row r="156" spans="1:3" ht="12.5">
       <c r="A156" s="8" t="s">
         <v>109</v>
       </c>
@@ -6138,7 +6191,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="13">
+    <row r="157" spans="1:3" ht="12.5">
       <c r="A157" s="8" t="s">
         <v>41</v>
       </c>
@@ -6149,7 +6202,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="13">
+    <row r="158" spans="1:3" ht="12.5">
       <c r="A158" s="8" t="s">
         <v>94</v>
       </c>
@@ -6160,7 +6213,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="159" spans="1:3" ht="13">
+    <row r="159" spans="1:3" ht="12.5">
       <c r="A159" s="8" t="s">
         <v>34</v>
       </c>
@@ -6171,7 +6224,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="160" spans="1:3" ht="14">
+    <row r="160" spans="1:3" ht="12.5">
       <c r="A160" s="10" t="s">
         <v>38</v>
       </c>
@@ -6182,7 +6235,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="161" spans="1:3" ht="13">
+    <row r="161" spans="1:3" ht="12.5">
       <c r="A161" s="8" t="s">
         <v>44</v>
       </c>
@@ -6193,7 +6246,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="162" spans="1:3" ht="13">
+    <row r="162" spans="1:3" ht="12.5">
       <c r="A162" s="8" t="s">
         <v>99</v>
       </c>
@@ -6204,7 +6257,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="163" spans="1:3" ht="13">
+    <row r="163" spans="1:3" ht="12.5">
       <c r="A163" s="8" t="s">
         <v>112</v>
       </c>
@@ -6215,7 +6268,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="164" spans="1:3" ht="13">
+    <row r="164" spans="1:3" ht="12.5">
       <c r="A164" s="8" t="s">
         <v>86</v>
       </c>
@@ -6226,7 +6279,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="165" spans="1:3" ht="13">
+    <row r="165" spans="1:3" ht="12.5">
       <c r="A165" s="8" t="s">
         <v>44</v>
       </c>
@@ -6237,7 +6290,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="166" spans="1:3" ht="13">
+    <row r="166" spans="1:3" ht="12.5">
       <c r="A166" s="8" t="s">
         <v>112</v>
       </c>
@@ -6248,7 +6301,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="167" spans="1:3" ht="13">
+    <row r="167" spans="1:3" ht="12.5">
       <c r="A167" s="8" t="s">
         <v>114</v>
       </c>
@@ -6259,7 +6312,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="168" spans="1:3" ht="13">
+    <row r="168" spans="1:3" ht="12.5">
       <c r="A168" s="8" t="s">
         <v>86</v>
       </c>
@@ -6270,7 +6323,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="169" spans="1:3" ht="13">
+    <row r="169" spans="1:3" ht="12.5">
       <c r="A169" s="8" t="s">
         <v>116</v>
       </c>
@@ -6281,7 +6334,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="170" spans="1:3" ht="13">
+    <row r="170" spans="1:3" ht="12.5">
       <c r="A170" s="8" t="s">
         <v>41</v>
       </c>
@@ -6292,7 +6345,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="171" spans="1:3" ht="14">
+    <row r="171" spans="1:3" ht="12.5">
       <c r="A171" s="10" t="s">
         <v>42</v>
       </c>
@@ -6303,18 +6356,18 @@
         <v>215</v>
       </c>
     </row>
-    <row r="172" spans="1:3" ht="13">
-      <c r="A172" s="38" t="s">
+    <row r="172" spans="1:3" ht="12.5">
+      <c r="A172" s="34" t="s">
         <v>110</v>
       </c>
-      <c r="B172" s="38" t="s">
+      <c r="B172" s="34" t="s">
         <v>110</v>
       </c>
       <c r="C172" s="8" t="s">
         <v>215</v>
       </c>
     </row>
-    <row r="173" spans="1:3" ht="13">
+    <row r="173" spans="1:3" ht="12.5">
       <c r="A173" s="8" t="s">
         <v>41</v>
       </c>
@@ -6325,7 +6378,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="174" spans="1:3" ht="13">
+    <row r="174" spans="1:3" ht="12.5">
       <c r="A174" s="8" t="s">
         <v>91</v>
       </c>
@@ -6336,7 +6389,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="175" spans="1:3" ht="13">
+    <row r="175" spans="1:3" ht="12.5">
       <c r="A175" s="8" t="s">
         <v>104</v>
       </c>
@@ -6347,7 +6400,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="176" spans="1:3" ht="13">
+    <row r="176" spans="1:3" ht="12.5">
       <c r="A176" s="8" t="s">
         <v>121</v>
       </c>
@@ -6358,7 +6411,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="177" spans="1:3" ht="13">
+    <row r="177" spans="1:3" ht="12.5">
       <c r="A177" s="8" t="s">
         <v>122</v>
       </c>
@@ -6382,16 +6435,16 @@
   </sheetPr>
   <dimension ref="A1:C158"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B73" activePane="bottomRight" state="frozen"/>
+    <sheetView workbookViewId="0">
+      <pane xSplit="1" ySplit="1" topLeftCell="B22" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
       <selection pane="bottomRight" activeCell="A80" sqref="A80"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="14.5" defaultRowHeight="15.75" customHeight="1"/>
+  <sheetFormatPr defaultColWidth="14.453125" defaultRowHeight="15.75" customHeight="1"/>
   <cols>
-    <col min="1" max="1" width="53.33203125" customWidth="1"/>
+    <col min="1" max="1" width="53.36328125" customWidth="1"/>
     <col min="2" max="2" width="39" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
   </cols>
@@ -6694,7 +6747,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A28" s="24" t="s">
+      <c r="A28" s="21" t="s">
         <v>48</v>
       </c>
       <c r="B28" s="5" t="s">
@@ -6705,7 +6758,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A29" s="24" t="s">
+      <c r="A29" s="21" t="s">
         <v>48</v>
       </c>
       <c r="B29" s="5" t="s">
@@ -6716,7 +6769,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A30" s="24" t="s">
+      <c r="A30" s="21" t="s">
         <v>48</v>
       </c>
       <c r="B30" s="5" t="s">
@@ -6727,7 +6780,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A31" s="24" t="s">
+      <c r="A31" s="21" t="s">
         <v>48</v>
       </c>
       <c r="B31" s="5" t="s">
@@ -6804,7 +6857,7 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A38" s="27" t="s">
+      <c r="A38" s="24" t="s">
         <v>79</v>
       </c>
       <c r="B38" s="5" t="s">
@@ -6815,7 +6868,7 @@
       </c>
     </row>
     <row r="39" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A39" s="27" t="s">
+      <c r="A39" s="24" t="s">
         <v>79</v>
       </c>
       <c r="B39" s="5" t="s">
@@ -6826,7 +6879,7 @@
       </c>
     </row>
     <row r="40" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A40" s="29" t="s">
+      <c r="A40" s="26" t="s">
         <v>80</v>
       </c>
       <c r="B40" s="5" t="s">
@@ -6837,7 +6890,7 @@
       </c>
     </row>
     <row r="41" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A41" s="29" t="s">
+      <c r="A41" s="26" t="s">
         <v>80</v>
       </c>
       <c r="B41" s="5" t="s">
@@ -6848,7 +6901,7 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A42" s="29" t="s">
+      <c r="A42" s="26" t="s">
         <v>80</v>
       </c>
       <c r="B42" s="5" t="s">
@@ -6859,7 +6912,7 @@
       </c>
     </row>
     <row r="43" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A43" s="29" t="s">
+      <c r="A43" s="26" t="s">
         <v>80</v>
       </c>
       <c r="B43" s="5" t="s">
@@ -6870,7 +6923,7 @@
       </c>
     </row>
     <row r="44" spans="1:3" ht="15.75" customHeight="1">
-      <c r="A44" s="29" t="s">
+      <c r="A44" s="26" t="s">
         <v>80</v>
       </c>
       <c r="B44" s="5" t="s">
@@ -6979,7 +7032,7 @@
         <v>5.3499999999999999E-2</v>
       </c>
     </row>
-    <row r="54" spans="1:3" ht="14">
+    <row r="54" spans="1:3" ht="12.5">
       <c r="A54" s="4" t="s">
         <v>95</v>
       </c>
@@ -6990,7 +7043,7 @@
         <v>2.3199999999999998E-2</v>
       </c>
     </row>
-    <row r="55" spans="1:3" ht="14">
+    <row r="55" spans="1:3" ht="12.5">
       <c r="A55" s="4" t="s">
         <v>98</v>
       </c>
@@ -7001,7 +7054,7 @@
         <v>0.1404</v>
       </c>
     </row>
-    <row r="56" spans="1:3" ht="14">
+    <row r="56" spans="1:3" ht="12.5">
       <c r="A56" s="4" t="s">
         <v>98</v>
       </c>
@@ -7012,7 +7065,7 @@
         <v>0.12889999999999999</v>
       </c>
     </row>
-    <row r="57" spans="1:3" ht="14">
+    <row r="57" spans="1:3" ht="12.5">
       <c r="A57" s="4" t="s">
         <v>98</v>
       </c>
@@ -7023,7 +7076,7 @@
         <v>0.10009999999999999</v>
       </c>
     </row>
-    <row r="58" spans="1:3" ht="14">
+    <row r="58" spans="1:3" ht="12.5">
       <c r="A58" s="4" t="s">
         <v>102</v>
       </c>
@@ -7034,18 +7087,18 @@
         <v>0.1434</v>
       </c>
     </row>
-    <row r="59" spans="1:3" ht="14">
+    <row r="59" spans="1:3" ht="12.5">
       <c r="A59" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="B59" s="34" t="s">
+      <c r="B59" s="31" t="s">
         <v>104</v>
       </c>
       <c r="C59" s="6">
         <v>0.13220000000000001</v>
       </c>
     </row>
-    <row r="60" spans="1:3" ht="14">
+    <row r="60" spans="1:3" ht="12.5">
       <c r="A60" s="4" t="s">
         <v>102</v>
       </c>
@@ -7056,7 +7109,7 @@
         <v>0.1187</v>
       </c>
     </row>
-    <row r="61" spans="1:3" ht="14">
+    <row r="61" spans="1:3" ht="12.5">
       <c r="A61" s="4" t="s">
         <v>102</v>
       </c>
@@ -7067,7 +7120,7 @@
         <v>0.11799999999999999</v>
       </c>
     </row>
-    <row r="62" spans="1:3" ht="14">
+    <row r="62" spans="1:3" ht="12.5">
       <c r="A62" s="4" t="s">
         <v>106</v>
       </c>
@@ -7078,7 +7131,7 @@
         <v>0.21290000000000001</v>
       </c>
     </row>
-    <row r="63" spans="1:3" ht="14">
+    <row r="63" spans="1:3" ht="12.5">
       <c r="A63" s="4" t="s">
         <v>106</v>
       </c>
@@ -7089,7 +7142,7 @@
         <v>0.1477</v>
       </c>
     </row>
-    <row r="64" spans="1:3" ht="14">
+    <row r="64" spans="1:3" ht="12.5">
       <c r="A64" s="4" t="s">
         <v>106</v>
       </c>
@@ -7100,7 +7153,7 @@
         <v>0.1018</v>
       </c>
     </row>
-    <row r="65" spans="1:3" ht="14">
+    <row r="65" spans="1:3" ht="12.5">
       <c r="A65" s="4" t="s">
         <v>106</v>
       </c>
@@ -7111,8 +7164,8 @@
         <v>5.4899999999999997E-2</v>
       </c>
     </row>
-    <row r="66" spans="1:3" ht="13">
-      <c r="A66" s="36" t="s">
+    <row r="66" spans="1:3" ht="12.5">
+      <c r="A66" s="32" t="s">
         <v>110</v>
       </c>
       <c r="B66" s="5" t="s">
@@ -7122,8 +7175,8 @@
         <v>7.6300000000000007E-2</v>
       </c>
     </row>
-    <row r="67" spans="1:3" ht="13">
-      <c r="A67" s="36" t="s">
+    <row r="67" spans="1:3" ht="12.5">
+      <c r="A67" s="32" t="s">
         <v>110</v>
       </c>
       <c r="B67" s="5" t="s">
@@ -7133,8 +7186,8 @@
         <v>5.6899999999999999E-2</v>
       </c>
     </row>
-    <row r="68" spans="1:3" ht="13">
-      <c r="A68" s="36" t="s">
+    <row r="68" spans="1:3" ht="12.5">
+      <c r="A68" s="32" t="s">
         <v>110</v>
       </c>
       <c r="B68" s="5" t="s">
@@ -7144,8 +7197,8 @@
         <v>4.2999999999999997E-2</v>
       </c>
     </row>
-    <row r="69" spans="1:3" ht="14">
-      <c r="A69" s="36" t="s">
+    <row r="69" spans="1:3" ht="12.5">
+      <c r="A69" s="32" t="s">
         <v>110</v>
       </c>
       <c r="B69" s="4" t="s">
@@ -7155,8 +7208,8 @@
         <v>3.2899999999999999E-2</v>
       </c>
     </row>
-    <row r="70" spans="1:3" ht="13">
-      <c r="A70" s="36" t="s">
+    <row r="70" spans="1:3" ht="12.5">
+      <c r="A70" s="32" t="s">
         <v>111</v>
       </c>
       <c r="B70" s="5" t="s">
@@ -7166,8 +7219,8 @@
         <v>6.4399999999999999E-2</v>
       </c>
     </row>
-    <row r="71" spans="1:3" ht="13">
-      <c r="A71" s="36" t="s">
+    <row r="71" spans="1:3" ht="12.5">
+      <c r="A71" s="32" t="s">
         <v>111</v>
       </c>
       <c r="B71" s="5" t="s">
@@ -7177,8 +7230,8 @@
         <v>4.9099999999999998E-2</v>
       </c>
     </row>
-    <row r="72" spans="1:3" ht="13">
-      <c r="A72" s="36" t="s">
+    <row r="72" spans="1:3" ht="12.5">
+      <c r="A72" s="32" t="s">
         <v>111</v>
       </c>
       <c r="B72" s="5" t="s">
@@ -7188,8 +7241,8 @@
         <v>3.6799999999999999E-2</v>
       </c>
     </row>
-    <row r="73" spans="1:3" ht="13">
-      <c r="A73" s="36" t="s">
+    <row r="73" spans="1:3" ht="12.5">
+      <c r="A73" s="32" t="s">
         <v>111</v>
       </c>
       <c r="B73" s="5" t="s">
@@ -7199,7 +7252,7 @@
         <v>3.0200000000000001E-2</v>
       </c>
     </row>
-    <row r="74" spans="1:3" ht="14">
+    <row r="74" spans="1:3" ht="12.5">
       <c r="A74" s="4" t="s">
         <v>113</v>
       </c>
@@ -7210,7 +7263,7 @@
         <v>0.37440000000000001</v>
       </c>
     </row>
-    <row r="75" spans="1:3" ht="14">
+    <row r="75" spans="1:3" ht="12.5">
       <c r="A75" s="4" t="s">
         <v>113</v>
       </c>
@@ -7221,7 +7274,7 @@
         <v>0.1258</v>
       </c>
     </row>
-    <row r="76" spans="1:3" ht="14">
+    <row r="76" spans="1:3" ht="12.5">
       <c r="A76" s="4" t="s">
         <v>113</v>
       </c>
@@ -7232,7 +7285,7 @@
         <v>3.2199999999999999E-2</v>
       </c>
     </row>
-    <row r="77" spans="1:3" ht="14">
+    <row r="77" spans="1:3" ht="12.5">
       <c r="A77" s="4" t="s">
         <v>113</v>
       </c>
@@ -7243,7 +7296,7 @@
         <v>3.1399999999999997E-2</v>
       </c>
     </row>
-    <row r="78" spans="1:3" ht="14">
+    <row r="78" spans="1:3" ht="12.5">
       <c r="A78" s="4" t="s">
         <v>115</v>
       </c>
@@ -7254,7 +7307,7 @@
         <v>0.17699999999999999</v>
       </c>
     </row>
-    <row r="79" spans="1:3" ht="14">
+    <row r="79" spans="1:3" ht="12.5">
       <c r="A79" s="4" t="s">
         <v>115</v>
       </c>
@@ -7265,7 +7318,7 @@
         <v>0.121</v>
       </c>
     </row>
-    <row r="80" spans="1:3" ht="14">
+    <row r="80" spans="1:3" ht="12.5">
       <c r="A80" s="4" t="s">
         <v>115</v>
       </c>
@@ -7276,18 +7329,18 @@
         <v>9.5600000000000004E-2</v>
       </c>
     </row>
-    <row r="81" spans="1:3" ht="14">
+    <row r="81" spans="1:3" ht="12.5">
       <c r="A81" s="4" t="s">
         <v>115</v>
       </c>
-      <c r="B81" s="40" t="s">
+      <c r="B81" s="36" t="s">
         <v>110</v>
       </c>
       <c r="C81" s="6">
         <v>7.4200000000000002E-2</v>
       </c>
     </row>
-    <row r="82" spans="1:3" ht="14">
+    <row r="82" spans="1:3" ht="12.5">
       <c r="A82" s="4" t="s">
         <v>120</v>
       </c>
@@ -7298,7 +7351,7 @@
         <v>8.6400000000000005E-2</v>
       </c>
     </row>
-    <row r="83" spans="1:3" ht="14">
+    <row r="83" spans="1:3" ht="12.5">
       <c r="A83" s="4" t="s">
         <v>120</v>
       </c>
@@ -7309,7 +7362,7 @@
         <v>5.9799999999999999E-2</v>
       </c>
     </row>
-    <row r="84" spans="1:3" ht="14">
+    <row r="84" spans="1:3" ht="12.5">
       <c r="A84" s="4" t="s">
         <v>120</v>
       </c>
@@ -7320,7 +7373,7 @@
         <v>3.1699999999999999E-2</v>
       </c>
     </row>
-    <row r="85" spans="1:3" ht="14">
+    <row r="85" spans="1:3" ht="12.5">
       <c r="A85" s="4" t="s">
         <v>120</v>
       </c>
@@ -7331,7 +7384,7 @@
         <v>3.04E-2</v>
       </c>
     </row>
-    <row r="86" spans="1:3" ht="14">
+    <row r="86" spans="1:3" ht="12.5">
       <c r="A86" s="4" t="s">
         <v>120</v>
       </c>
@@ -7342,18 +7395,18 @@
         <v>2.7400000000000001E-2</v>
       </c>
     </row>
-    <row r="87" spans="1:3" s="53" customFormat="1" ht="14">
-      <c r="A87" s="50" t="s">
+    <row r="87" spans="1:3" s="48" customFormat="1" ht="12.5">
+      <c r="A87" s="45" t="s">
         <v>123</v>
       </c>
-      <c r="B87" s="51" t="s">
+      <c r="B87" s="46" t="s">
         <v>31</v>
       </c>
-      <c r="C87" s="52">
+      <c r="C87" s="47">
         <v>0.24260000000000001</v>
       </c>
     </row>
-    <row r="88" spans="1:3" ht="14">
+    <row r="88" spans="1:3" ht="12.5">
       <c r="A88" s="5" t="s">
         <v>86</v>
       </c>
@@ -7364,7 +7417,7 @@
         <v>0.14910000000000001</v>
       </c>
     </row>
-    <row r="89" spans="1:3" ht="14">
+    <row r="89" spans="1:3" ht="12.5">
       <c r="A89" s="5" t="s">
         <v>136</v>
       </c>
@@ -7375,62 +7428,62 @@
         <v>0.1168</v>
       </c>
     </row>
-    <row r="90" spans="1:3" ht="14">
+    <row r="90" spans="1:3" ht="12.5">
       <c r="A90" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B90" s="46" t="s">
+      <c r="B90" s="41" t="s">
         <v>35</v>
       </c>
       <c r="C90" s="6">
         <v>0.22620000000000001</v>
       </c>
     </row>
-    <row r="91" spans="1:3" ht="14">
+    <row r="91" spans="1:3" ht="12.5">
       <c r="A91" s="5" t="s">
         <v>138</v>
       </c>
-      <c r="B91" s="46" t="s">
+      <c r="B91" s="41" t="s">
         <v>35</v>
       </c>
       <c r="C91" s="6">
         <v>0.1207</v>
       </c>
     </row>
-    <row r="92" spans="1:3" ht="14">
+    <row r="92" spans="1:3" ht="12.5">
       <c r="A92" s="5" t="s">
         <v>139</v>
       </c>
-      <c r="B92" s="46" t="s">
+      <c r="B92" s="41" t="s">
         <v>35</v>
       </c>
       <c r="C92" s="6">
         <v>8.9800000000000005E-2</v>
       </c>
     </row>
-    <row r="93" spans="1:3" ht="14">
+    <row r="93" spans="1:3" ht="12.5">
       <c r="A93" s="5" t="s">
         <v>140</v>
       </c>
-      <c r="B93" s="46" t="s">
+      <c r="B93" s="41" t="s">
         <v>35</v>
       </c>
       <c r="C93" s="6">
         <v>8.5099999999999995E-2</v>
       </c>
     </row>
-    <row r="94" spans="1:3" ht="14">
+    <row r="94" spans="1:3" ht="12.5">
       <c r="A94" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="B94" s="46" t="s">
+      <c r="B94" s="41" t="s">
         <v>35</v>
       </c>
       <c r="C94" s="6">
         <v>5.1299999999999998E-2</v>
       </c>
     </row>
-    <row r="95" spans="1:3" ht="14">
+    <row r="95" spans="1:3" ht="12.5">
       <c r="A95" s="5" t="s">
         <v>123</v>
       </c>
@@ -7441,7 +7494,7 @@
         <v>0.51329999999999998</v>
       </c>
     </row>
-    <row r="96" spans="1:3" ht="14">
+    <row r="96" spans="1:3" ht="12.5">
       <c r="A96" s="5" t="s">
         <v>86</v>
       </c>
@@ -7452,7 +7505,7 @@
         <v>6.3700000000000007E-2</v>
       </c>
     </row>
-    <row r="97" spans="1:3" ht="14">
+    <row r="97" spans="1:3" ht="12.5">
       <c r="A97" s="5" t="s">
         <v>107</v>
       </c>
@@ -7463,7 +7516,7 @@
         <v>4.6100000000000002E-2</v>
       </c>
     </row>
-    <row r="98" spans="1:3" ht="14">
+    <row r="98" spans="1:3" ht="12.5">
       <c r="A98" s="5" t="s">
         <v>146</v>
       </c>
@@ -7474,29 +7527,29 @@
         <v>4.0500000000000001E-2</v>
       </c>
     </row>
-    <row r="99" spans="1:3" ht="13">
+    <row r="99" spans="1:3" ht="12.5">
       <c r="A99" s="5" t="s">
         <v>148</v>
       </c>
-      <c r="B99" s="47" t="s">
+      <c r="B99" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C99" s="6">
         <v>0.66200000000000003</v>
       </c>
     </row>
-    <row r="100" spans="1:3" ht="13">
+    <row r="100" spans="1:3" ht="12.5">
       <c r="A100" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B100" s="47" t="s">
+      <c r="B100" s="42" t="s">
         <v>48</v>
       </c>
       <c r="C100" s="6">
         <v>4.2599999999999999E-2</v>
       </c>
     </row>
-    <row r="101" spans="1:3" ht="14">
+    <row r="101" spans="1:3" ht="12.5">
       <c r="A101" s="5" t="s">
         <v>150</v>
       </c>
@@ -7507,7 +7560,7 @@
         <v>0.38850000000000001</v>
       </c>
     </row>
-    <row r="102" spans="1:3" ht="14">
+    <row r="102" spans="1:3" ht="12.5">
       <c r="A102" s="5" t="s">
         <v>123</v>
       </c>
@@ -7518,7 +7571,7 @@
         <v>0.17510000000000001</v>
       </c>
     </row>
-    <row r="103" spans="1:3" ht="14">
+    <row r="103" spans="1:3" ht="12.5">
       <c r="A103" s="5" t="s">
         <v>153</v>
       </c>
@@ -7529,7 +7582,7 @@
         <v>8.0199999999999994E-2</v>
       </c>
     </row>
-    <row r="104" spans="1:3" ht="14">
+    <row r="104" spans="1:3" ht="12.5">
       <c r="A104" s="5" t="s">
         <v>154</v>
       </c>
@@ -7540,7 +7593,7 @@
         <v>3.85E-2</v>
       </c>
     </row>
-    <row r="105" spans="1:3" ht="14">
+    <row r="105" spans="1:3" ht="12.5">
       <c r="A105" s="5" t="s">
         <v>156</v>
       </c>
@@ -7551,7 +7604,7 @@
         <v>3.5799999999999998E-2</v>
       </c>
     </row>
-    <row r="106" spans="1:3" ht="14">
+    <row r="106" spans="1:3" ht="12.5">
       <c r="A106" s="5" t="s">
         <v>157</v>
       </c>
@@ -7562,7 +7615,7 @@
         <v>0.08</v>
       </c>
     </row>
-    <row r="107" spans="1:3" ht="14">
+    <row r="107" spans="1:3" ht="12.5">
       <c r="A107" s="5" t="s">
         <v>158</v>
       </c>
@@ -7573,7 +7626,7 @@
         <v>1.8700000000000001E-2</v>
       </c>
     </row>
-    <row r="108" spans="1:3" ht="14">
+    <row r="108" spans="1:3" ht="12.5">
       <c r="A108" s="5" t="s">
         <v>159</v>
       </c>
@@ -7584,62 +7637,62 @@
         <v>1.8700000000000001E-2</v>
       </c>
     </row>
-    <row r="109" spans="1:3" ht="13">
+    <row r="109" spans="1:3" ht="12.5">
       <c r="A109" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B109" s="29" t="s">
+      <c r="B109" s="26" t="s">
         <v>80</v>
       </c>
       <c r="C109" s="6">
         <v>0.52759999999999996</v>
       </c>
     </row>
-    <row r="110" spans="1:3" ht="14">
+    <row r="110" spans="1:3" ht="12.5">
       <c r="A110" s="4" t="s">
         <v>106</v>
       </c>
-      <c r="B110" s="29" t="s">
+      <c r="B110" s="26" t="s">
         <v>80</v>
       </c>
       <c r="C110" s="6">
         <v>0.10920000000000001</v>
       </c>
     </row>
-    <row r="111" spans="1:3" ht="13">
+    <row r="111" spans="1:3" ht="12.5">
       <c r="A111" s="5" t="s">
         <v>136</v>
       </c>
-      <c r="B111" s="29" t="s">
+      <c r="B111" s="26" t="s">
         <v>80</v>
       </c>
       <c r="C111" s="6">
         <v>9.4299999999999995E-2</v>
       </c>
     </row>
-    <row r="112" spans="1:3" ht="13">
+    <row r="112" spans="1:3" ht="12.5">
       <c r="A112" s="5" t="s">
         <v>163</v>
       </c>
-      <c r="B112" s="29" t="s">
+      <c r="B112" s="26" t="s">
         <v>80</v>
       </c>
       <c r="C112" s="6">
         <v>9.4299999999999995E-2</v>
       </c>
     </row>
-    <row r="113" spans="1:3" ht="13">
+    <row r="113" spans="1:3" ht="12.5">
       <c r="A113" s="5" t="s">
         <v>164</v>
       </c>
-      <c r="B113" s="29" t="s">
+      <c r="B113" s="26" t="s">
         <v>80</v>
       </c>
       <c r="C113" s="6">
         <v>9.4299999999999995E-2</v>
       </c>
     </row>
-    <row r="114" spans="1:3" ht="14">
+    <row r="114" spans="1:3" ht="12.5">
       <c r="A114" s="5" t="s">
         <v>150</v>
       </c>
@@ -7650,7 +7703,7 @@
         <v>0.77239999999999998</v>
       </c>
     </row>
-    <row r="115" spans="1:3" ht="14">
+    <row r="115" spans="1:3" ht="12.5">
       <c r="A115" s="5" t="s">
         <v>166</v>
       </c>
@@ -7661,7 +7714,7 @@
         <v>3.1800000000000002E-2</v>
       </c>
     </row>
-    <row r="116" spans="1:3" ht="14">
+    <row r="116" spans="1:3" ht="12.5">
       <c r="A116" s="5" t="s">
         <v>107</v>
       </c>
@@ -7672,7 +7725,7 @@
         <v>2.6100000000000002E-2</v>
       </c>
     </row>
-    <row r="117" spans="1:3" ht="14">
+    <row r="117" spans="1:3" ht="12.5">
       <c r="A117" s="5" t="s">
         <v>169</v>
       </c>
@@ -7683,7 +7736,7 @@
         <v>2.52E-2</v>
       </c>
     </row>
-    <row r="118" spans="1:3" ht="14">
+    <row r="118" spans="1:3" ht="12.5">
       <c r="A118" s="5" t="s">
         <v>123</v>
       </c>
@@ -7694,7 +7747,7 @@
         <v>2.1700000000000001E-2</v>
       </c>
     </row>
-    <row r="119" spans="1:3" ht="14">
+    <row r="119" spans="1:3" ht="12.5">
       <c r="A119" s="5" t="s">
         <v>170</v>
       </c>
@@ -7705,7 +7758,7 @@
         <v>0.41370000000000001</v>
       </c>
     </row>
-    <row r="120" spans="1:3" ht="14">
+    <row r="120" spans="1:3" ht="12.5">
       <c r="A120" s="5" t="s">
         <v>172</v>
       </c>
@@ -7716,7 +7769,7 @@
         <v>0.23139999999999999</v>
       </c>
     </row>
-    <row r="121" spans="1:3" ht="14">
+    <row r="121" spans="1:3" ht="12.5">
       <c r="A121" s="5" t="s">
         <v>154</v>
       </c>
@@ -7727,7 +7780,7 @@
         <v>0.113</v>
       </c>
     </row>
-    <row r="122" spans="1:3" ht="14">
+    <row r="122" spans="1:3" ht="12.5">
       <c r="A122" s="5" t="s">
         <v>174</v>
       </c>
@@ -7738,7 +7791,7 @@
         <v>6.7799999999999999E-2</v>
       </c>
     </row>
-    <row r="123" spans="1:3" ht="14">
+    <row r="123" spans="1:3" ht="12.5">
       <c r="A123" s="5" t="s">
         <v>175</v>
       </c>
@@ -7749,8 +7802,8 @@
         <v>5.2499999999999998E-2</v>
       </c>
     </row>
-    <row r="124" spans="1:3" ht="14">
-      <c r="A124" s="36" t="s">
+    <row r="124" spans="1:3" ht="12.5">
+      <c r="A124" s="32" t="s">
         <v>111</v>
       </c>
       <c r="B124" s="4" t="s">
@@ -7760,7 +7813,7 @@
         <v>0.1226</v>
       </c>
     </row>
-    <row r="125" spans="1:3" ht="14">
+    <row r="125" spans="1:3" ht="12.5">
       <c r="A125" s="5" t="s">
         <v>176</v>
       </c>
@@ -7771,7 +7824,7 @@
         <v>0.1226</v>
       </c>
     </row>
-    <row r="126" spans="1:3" ht="14">
+    <row r="126" spans="1:3" ht="12.5">
       <c r="A126" s="5" t="s">
         <v>177</v>
       </c>
@@ -7782,7 +7835,7 @@
         <v>0.1226</v>
       </c>
     </row>
-    <row r="127" spans="1:3" ht="14">
+    <row r="127" spans="1:3" ht="12.5">
       <c r="A127" s="5" t="s">
         <v>178</v>
       </c>
@@ -7793,7 +7846,7 @@
         <v>0.1206</v>
       </c>
     </row>
-    <row r="128" spans="1:3" ht="14">
+    <row r="128" spans="1:3" ht="12.5">
       <c r="A128" s="5" t="s">
         <v>180</v>
       </c>
@@ -7804,7 +7857,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="129" spans="1:3" ht="14">
+    <row r="129" spans="1:3" ht="12.5">
       <c r="A129" s="5" t="s">
         <v>181</v>
       </c>
@@ -7815,7 +7868,7 @@
         <v>0.33300000000000002</v>
       </c>
     </row>
-    <row r="130" spans="1:3" ht="14">
+    <row r="130" spans="1:3" ht="12.5">
       <c r="A130" s="5" t="s">
         <v>102</v>
       </c>
@@ -7826,7 +7879,7 @@
         <v>0.112</v>
       </c>
     </row>
-    <row r="131" spans="1:3" ht="14">
+    <row r="131" spans="1:3" ht="12.5">
       <c r="A131" s="5" t="s">
         <v>183</v>
       </c>
@@ -7837,7 +7890,7 @@
         <v>5.5500000000000001E-2</v>
       </c>
     </row>
-    <row r="132" spans="1:3" ht="14">
+    <row r="132" spans="1:3" ht="12.5">
       <c r="A132" s="5" t="s">
         <v>86</v>
       </c>
@@ -7848,7 +7901,7 @@
         <v>0.38250000000000001</v>
       </c>
     </row>
-    <row r="133" spans="1:3" ht="14">
+    <row r="133" spans="1:3" ht="12.5">
       <c r="A133" s="5" t="s">
         <v>185</v>
       </c>
@@ -7859,8 +7912,8 @@
         <v>0.2392</v>
       </c>
     </row>
-    <row r="134" spans="1:3" ht="14">
-      <c r="A134" s="36" t="s">
+    <row r="134" spans="1:3" ht="12.5">
+      <c r="A134" s="32" t="s">
         <v>111</v>
       </c>
       <c r="B134" s="4" t="s">
@@ -7870,7 +7923,7 @@
         <v>0.1593</v>
       </c>
     </row>
-    <row r="135" spans="1:3" ht="14">
+    <row r="135" spans="1:3" ht="12.5">
       <c r="A135" s="5" t="s">
         <v>187</v>
       </c>
@@ -7881,106 +7934,106 @@
         <v>0.1043</v>
       </c>
     </row>
-    <row r="136" spans="1:3" ht="13">
+    <row r="136" spans="1:3" ht="12.5">
       <c r="A136" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B136" s="40" t="s">
+      <c r="B136" s="36" t="s">
         <v>110</v>
       </c>
       <c r="C136" s="6">
         <v>0.44450000000000001</v>
       </c>
     </row>
-    <row r="137" spans="1:3" ht="13">
+    <row r="137" spans="1:3" ht="12.5">
       <c r="A137" s="5" t="s">
         <v>189</v>
       </c>
-      <c r="B137" s="40" t="s">
+      <c r="B137" s="36" t="s">
         <v>110</v>
       </c>
       <c r="C137" s="6">
         <v>0.18140000000000001</v>
       </c>
     </row>
-    <row r="138" spans="1:3" ht="13">
+    <row r="138" spans="1:3" ht="12.5">
       <c r="A138" s="5" t="s">
         <v>107</v>
       </c>
-      <c r="B138" s="40" t="s">
+      <c r="B138" s="36" t="s">
         <v>110</v>
       </c>
       <c r="C138" s="6">
         <v>5.9900000000000002E-2</v>
       </c>
     </row>
-    <row r="139" spans="1:3" ht="13">
+    <row r="139" spans="1:3" ht="12.5">
       <c r="A139" s="5" t="s">
         <v>190</v>
       </c>
-      <c r="B139" s="40" t="s">
+      <c r="B139" s="36" t="s">
         <v>110</v>
       </c>
       <c r="C139" s="6">
         <v>5.16E-2</v>
       </c>
     </row>
-    <row r="140" spans="1:3" ht="13">
+    <row r="140" spans="1:3" ht="12.5">
       <c r="A140" s="5" t="s">
         <v>192</v>
       </c>
-      <c r="B140" s="40" t="s">
+      <c r="B140" s="36" t="s">
         <v>110</v>
       </c>
       <c r="C140" s="6">
         <v>4.0599999999999997E-2</v>
       </c>
     </row>
-    <row r="141" spans="1:3" ht="13">
+    <row r="141" spans="1:3" ht="12.5">
       <c r="A141" s="5" t="s">
         <v>194</v>
       </c>
-      <c r="B141" s="40" t="s">
+      <c r="B141" s="36" t="s">
         <v>111</v>
       </c>
       <c r="C141" s="6">
         <v>0.19370000000000001</v>
       </c>
     </row>
-    <row r="142" spans="1:3" ht="13">
+    <row r="142" spans="1:3" ht="12.5">
       <c r="A142" s="5" t="s">
         <v>196</v>
       </c>
-      <c r="B142" s="40" t="s">
+      <c r="B142" s="36" t="s">
         <v>111</v>
       </c>
       <c r="C142" s="6">
         <v>0.1169</v>
       </c>
     </row>
-    <row r="143" spans="1:3" ht="13">
+    <row r="143" spans="1:3" ht="12.5">
       <c r="A143" s="5" t="s">
         <v>86</v>
       </c>
-      <c r="B143" s="40" t="s">
+      <c r="B143" s="36" t="s">
         <v>111</v>
       </c>
       <c r="C143" s="6">
         <v>9.0700000000000003E-2</v>
       </c>
     </row>
-    <row r="144" spans="1:3" ht="13">
+    <row r="144" spans="1:3" ht="12.5">
       <c r="A144" s="5" t="s">
         <v>198</v>
       </c>
-      <c r="B144" s="40" t="s">
+      <c r="B144" s="36" t="s">
         <v>111</v>
       </c>
       <c r="C144" s="6">
         <v>4.9599999999999998E-2</v>
       </c>
     </row>
-    <row r="145" spans="1:3" ht="14">
+    <row r="145" spans="1:3" ht="12.5">
       <c r="A145" s="5" t="s">
         <v>123</v>
       </c>
@@ -7991,8 +8044,8 @@
         <v>0.35060000000000002</v>
       </c>
     </row>
-    <row r="146" spans="1:3" ht="14">
-      <c r="A146" s="36" t="s">
+    <row r="146" spans="1:3" ht="12.5">
+      <c r="A146" s="32" t="s">
         <v>111</v>
       </c>
       <c r="B146" s="4" t="s">
@@ -8002,7 +8055,7 @@
         <v>0.1132</v>
       </c>
     </row>
-    <row r="147" spans="1:3" ht="14">
+    <row r="147" spans="1:3" ht="12.5">
       <c r="A147" s="5" t="s">
         <v>200</v>
       </c>
@@ -8013,7 +8066,7 @@
         <v>4.1399999999999999E-2</v>
       </c>
     </row>
-    <row r="148" spans="1:3" ht="14">
+    <row r="148" spans="1:3" ht="12.5">
       <c r="A148" s="5" t="s">
         <v>201</v>
       </c>
@@ -8024,7 +8077,7 @@
         <v>3.5400000000000001E-2</v>
       </c>
     </row>
-    <row r="149" spans="1:3" ht="14">
+    <row r="149" spans="1:3" ht="12.5">
       <c r="A149" s="5" t="s">
         <v>202</v>
       </c>
@@ -8035,8 +8088,8 @@
         <v>0.37409999999999999</v>
       </c>
     </row>
-    <row r="150" spans="1:3" ht="14">
-      <c r="A150" s="36" t="s">
+    <row r="150" spans="1:3" ht="12.5">
+      <c r="A150" s="32" t="s">
         <v>110</v>
       </c>
       <c r="B150" s="4" t="s">
@@ -8046,7 +8099,7 @@
         <v>0.2409</v>
       </c>
     </row>
-    <row r="151" spans="1:3" ht="14">
+    <row r="151" spans="1:3" ht="12.5">
       <c r="A151" s="5" t="s">
         <v>204</v>
       </c>
@@ -8057,7 +8110,7 @@
         <v>0.1195</v>
       </c>
     </row>
-    <row r="152" spans="1:3" ht="14">
+    <row r="152" spans="1:3" ht="12.5">
       <c r="A152" s="5" t="s">
         <v>205</v>
       </c>
@@ -8068,7 +8121,7 @@
         <v>7.5899999999999995E-2</v>
       </c>
     </row>
-    <row r="153" spans="1:3" ht="14">
+    <row r="153" spans="1:3" ht="12.5">
       <c r="A153" s="5" t="s">
         <v>107</v>
       </c>
@@ -8079,7 +8132,7 @@
         <v>5.4199999999999998E-2</v>
       </c>
     </row>
-    <row r="154" spans="1:3" ht="14">
+    <row r="154" spans="1:3" ht="12.5">
       <c r="A154" s="5" t="s">
         <v>150</v>
       </c>
@@ -8090,7 +8143,7 @@
         <v>0.62180000000000002</v>
       </c>
     </row>
-    <row r="155" spans="1:3" ht="14">
+    <row r="155" spans="1:3" ht="12.5">
       <c r="A155" s="5" t="s">
         <v>169</v>
       </c>
@@ -8101,7 +8154,7 @@
         <v>7.4200000000000002E-2</v>
       </c>
     </row>
-    <row r="156" spans="1:3" ht="14">
+    <row r="156" spans="1:3" ht="12.5">
       <c r="A156" s="5" t="s">
         <v>154</v>
       </c>
@@ -8112,7 +8165,7 @@
         <v>3.9600000000000003E-2</v>
       </c>
     </row>
-    <row r="157" spans="1:3" ht="14">
+    <row r="157" spans="1:3" ht="12.5">
       <c r="A157" s="5" t="s">
         <v>166</v>
       </c>
@@ -8123,7 +8176,7 @@
         <v>3.8600000000000002E-2</v>
       </c>
     </row>
-    <row r="158" spans="1:3" ht="14">
+    <row r="158" spans="1:3" ht="12.5">
       <c r="A158" s="5" t="s">
         <v>123</v>
       </c>
